--- a/maioresChuvasHistoricas.xlsx
+++ b/maioresChuvasHistoricas.xlsx
@@ -454,19 +454,19 @@
         <v>13/2/2009 - 101.2</v>
       </c>
       <c r="D2" t="str">
-        <v>5/3/2022 - 82</v>
+        <v>5/3/2022 - 82.0</v>
       </c>
       <c r="E2" t="str">
-        <v>15/4/2021 - 155</v>
+        <v>15/4/2021 - 155.0</v>
       </c>
       <c r="F2" t="str">
-        <v>13/5/2006 - 105</v>
+        <v>13/5/2006 - 105.0</v>
       </c>
       <c r="G2" t="str">
         <v>28/6/2010 - 46.2</v>
       </c>
       <c r="H2" t="str">
-        <v>24/7/2017 - 45</v>
+        <v>24/7/2017 - 45.0</v>
       </c>
       <c r="I2" t="str">
         <v>27/8/1996 - 30.4</v>
@@ -478,7 +478,7 @@
         <v>27/10/2010 - 45.4</v>
       </c>
       <c r="L2" t="str">
-        <v>30/11/2022 - 120</v>
+        <v>30/11/2022 - 120.0</v>
       </c>
       <c r="M2" t="str">
         <v>14/12/2000 - 46.8</v>
@@ -489,7 +489,7 @@
         <v>Aguiar</v>
       </c>
       <c r="B3" t="str">
-        <v>21/1/1994 - 125</v>
+        <v>21/1/1994 - 125.0</v>
       </c>
       <c r="C3" t="str">
         <v>1/2/2008 - 105.6</v>
@@ -498,7 +498,7 @@
         <v>14/3/1999 - 138.5</v>
       </c>
       <c r="E3" t="str">
-        <v>7/4/2008 - 158</v>
+        <v>7/4/2008 - 158.0</v>
       </c>
       <c r="F3" t="str">
         <v>20/5/2017 - 87.8</v>
@@ -516,13 +516,13 @@
         <v>18/9/2000 - 8.9</v>
       </c>
       <c r="K3" t="str">
-        <v>27/10/1999 - 42</v>
+        <v>27/10/1999 - 42.0</v>
       </c>
       <c r="L3" t="str">
         <v>3/11/2020 - 97.7</v>
       </c>
       <c r="M3" t="str">
-        <v>8/12/2005 - 68</v>
+        <v>8/12/2005 - 68.0</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         <v>23/1/2004 - 106.7</v>
       </c>
       <c r="C4" t="str">
-        <v>5/2/2004 - 104</v>
+        <v>5/2/2004 - 104.0</v>
       </c>
       <c r="D4" t="str">
-        <v>5/3/1996 - 74</v>
+        <v>5/3/1996 - 74.0</v>
       </c>
       <c r="E4" t="str">
         <v>17/4/2000 - 69.4</v>
@@ -545,7 +545,7 @@
         <v>14/5/2021 - 85.5</v>
       </c>
       <c r="G4" t="str">
-        <v>26/6/2000 - 70</v>
+        <v>26/6/2000 - 70.0</v>
       </c>
       <c r="H4" t="str">
         <v>21/7/2017 - 116.6</v>
@@ -557,10 +557,10 @@
         <v>9/9/2014 - 38.2</v>
       </c>
       <c r="K4" t="str">
-        <v>25/10/2010 - 72</v>
+        <v>25/10/2010 - 72.0</v>
       </c>
       <c r="L4" t="str">
-        <v>9/11/1996 - 58</v>
+        <v>9/11/1996 - 58.0</v>
       </c>
       <c r="M4" t="str">
         <v>29/12/2016 - 58.2</v>
@@ -574,16 +574,16 @@
         <v>23/1/2004 - 74.2</v>
       </c>
       <c r="C5" t="str">
-        <v>5/2/2004 - 109</v>
+        <v>5/2/2004 - 109.0</v>
       </c>
       <c r="D5" t="str">
-        <v>18/3/1999 - 99</v>
+        <v>18/3/1999 - 99.0</v>
       </c>
       <c r="E5" t="str">
         <v>27/4/1997 - 114.5</v>
       </c>
       <c r="F5" t="str">
-        <v>5/5/2005 - 118</v>
+        <v>5/5/2005 - 118.0</v>
       </c>
       <c r="G5" t="str">
         <v>28/6/2012 - 72.2</v>
@@ -592,7 +592,7 @@
         <v>21/7/2017 - 94.5</v>
       </c>
       <c r="I5" t="str">
-        <v>8/8/2008 - 47</v>
+        <v>8/8/2008 - 47.0</v>
       </c>
       <c r="J5" t="str">
         <v>12/9/2000 - 43.6</v>
@@ -601,10 +601,10 @@
         <v>24/10/2010 - 43.2</v>
       </c>
       <c r="L5" t="str">
-        <v>9/11/1996 - 47</v>
+        <v>9/11/1996 - 47.0</v>
       </c>
       <c r="M5" t="str">
-        <v>27/12/2021 - 69</v>
+        <v>27/12/2021 - 69.0</v>
       </c>
     </row>
     <row r="6">
@@ -639,13 +639,13 @@
         <v>9/9/2014 - 63.2</v>
       </c>
       <c r="K6" t="str">
-        <v>18/10/2003 - 28</v>
+        <v>18/10/2003 - 28.0</v>
       </c>
       <c r="L6" t="str">
         <v>11/11/1996 - 38.6</v>
       </c>
       <c r="M6" t="str">
-        <v>28/12/1994 - 73</v>
+        <v>28/12/1994 - 73.0</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>24/2/2010 - 85.4</v>
       </c>
       <c r="D7" t="str">
-        <v>19/3/2023 - 151</v>
+        <v>19/3/2023 - 151.0</v>
       </c>
       <c r="E7" t="str">
         <v>16/4/2000 - 84.2</v>
@@ -671,7 +671,7 @@
         <v>18/6/2010 - 90.5</v>
       </c>
       <c r="H7" t="str">
-        <v>15/7/2004 - 35</v>
+        <v>15/7/2004 - 35.0</v>
       </c>
       <c r="I7" t="str">
         <v>26/8/2009 - 28.7</v>
@@ -706,7 +706,7 @@
         <v>13/4/2017 - 79.3</v>
       </c>
       <c r="F8" t="str">
-        <v>8/5/2008 - 76</v>
+        <v>8/5/2008 - 76.0</v>
       </c>
       <c r="G8" t="str">
         <v>12/6/2006 - 47.6</v>
@@ -715,7 +715,7 @@
         <v>5/7/2015 - 63.5</v>
       </c>
       <c r="I8" t="str">
-        <v>8/8/2008 - 36</v>
+        <v>8/8/2008 - 36.0</v>
       </c>
       <c r="J8" t="str">
         <v>10/9/1994 - 20.2</v>
@@ -727,7 +727,7 @@
         <v>16/11/1996 - 33.6</v>
       </c>
       <c r="M8" t="str">
-        <v>7/12/2005 - 39</v>
+        <v>7/12/2005 - 39.0</v>
       </c>
     </row>
     <row r="9">
@@ -744,13 +744,13 @@
         <v>25/3/1994 - 110.2</v>
       </c>
       <c r="E9" t="str">
-        <v>29/4/1996 - 154</v>
+        <v>29/4/1996 - 154.0</v>
       </c>
       <c r="F9" t="str">
-        <v>30/5/1996 - 146</v>
+        <v>30/5/1996 - 146.0</v>
       </c>
       <c r="G9" t="str">
-        <v>26/6/2000 - 173</v>
+        <v>26/6/2000 - 173.0</v>
       </c>
       <c r="H9" t="str">
         <v>16/7/2004 - 175.4</v>
@@ -759,13 +759,13 @@
         <v>18/8/1994 - 97.2</v>
       </c>
       <c r="J9" t="str">
-        <v>17/9/2000 - 170</v>
+        <v>17/9/2000 - 170.0</v>
       </c>
       <c r="K9" t="str">
         <v>24/10/2010 - 45.3</v>
       </c>
       <c r="L9" t="str">
-        <v>6/11/1995 - 39</v>
+        <v>6/11/1995 - 39.0</v>
       </c>
       <c r="M9" t="str">
         <v>15/12/2000 - 125.6</v>
@@ -794,7 +794,7 @@
         <v>27/6/2001 - 64.3</v>
       </c>
       <c r="H10" t="str">
-        <v>7/7/1999 - 48</v>
+        <v>7/7/1999 - 48.0</v>
       </c>
       <c r="I10" t="str">
         <v>26/8/2009 - 48.8</v>
@@ -806,7 +806,7 @@
         <v>24/10/2010 - 117.4</v>
       </c>
       <c r="L10" t="str">
-        <v>3/11/2020 - 70</v>
+        <v>3/11/2020 - 70.0</v>
       </c>
       <c r="M10" t="str">
         <v>27/12/2021 - 53.3</v>
@@ -844,7 +844,7 @@
         <v>8/9/2000 - 21.3</v>
       </c>
       <c r="K11" t="str">
-        <v>23/10/2010 - 88</v>
+        <v>23/10/2010 - 88.0</v>
       </c>
       <c r="L11" t="str">
         <v>24/11/1995 - 42.2</v>
@@ -861,7 +861,7 @@
         <v>19/1/2004 - 75.1</v>
       </c>
       <c r="C12" t="str">
-        <v>24/2/2003 - 98</v>
+        <v>24/2/2003 - 98.0</v>
       </c>
       <c r="D12" t="str">
         <v>3/3/2018 - 117.7</v>
@@ -873,7 +873,7 @@
         <v>20/5/2011 - 79.7</v>
       </c>
       <c r="G12" t="str">
-        <v>13/6/2007 - 152</v>
+        <v>13/6/2007 - 152.0</v>
       </c>
       <c r="H12" t="str">
         <v>21/7/2017 - 90.1</v>
@@ -920,7 +920,7 @@
         <v>3/7/2022 - 61.4</v>
       </c>
       <c r="I13" t="str">
-        <v>8/8/2008 - 78</v>
+        <v>8/8/2008 - 78.0</v>
       </c>
       <c r="J13" t="str">
         <v>12/9/2000 - 25.6</v>
@@ -943,7 +943,7 @@
         <v>25/1/2005 - 134.3</v>
       </c>
       <c r="C14" t="str">
-        <v>15/2/2000 - 148</v>
+        <v>15/2/2000 - 148.0</v>
       </c>
       <c r="D14" t="str">
         <v>20/3/2008 - 97.9</v>
@@ -952,10 +952,10 @@
         <v>18/4/2013 - 73.3</v>
       </c>
       <c r="F14" t="str">
-        <v>11/5/2016 - 82</v>
+        <v>11/5/2016 - 82.0</v>
       </c>
       <c r="G14" t="str">
-        <v>13/6/2007 - 85</v>
+        <v>13/6/2007 - 85.0</v>
       </c>
       <c r="H14" t="str">
         <v>1/7/2000 - 87.2</v>
@@ -993,7 +993,7 @@
         <v>7/4/1996 - 111.4</v>
       </c>
       <c r="F15" t="str">
-        <v>5/5/2011 - 146</v>
+        <v>5/5/2011 - 146.0</v>
       </c>
       <c r="G15" t="str">
         <v>16/6/2002 - 87.6</v>
@@ -1037,7 +1037,7 @@
         <v>30/5/1996 - 67.2</v>
       </c>
       <c r="G16" t="str">
-        <v>27/6/2001 - 68</v>
+        <v>27/6/2001 - 68.0</v>
       </c>
       <c r="H16" t="str">
         <v>17/7/2011 - 72.5</v>
@@ -1066,7 +1066,7 @@
         <v>22/1/2004 - 104.4</v>
       </c>
       <c r="C17" t="str">
-        <v>20/2/2007 - 67</v>
+        <v>20/2/2007 - 67.0</v>
       </c>
       <c r="D17" t="str">
         <v>2/3/2011 - 74.5</v>
@@ -1081,7 +1081,7 @@
         <v>18/6/2010 - 100.7</v>
       </c>
       <c r="H17" t="str">
-        <v>16/7/2004 - 50</v>
+        <v>16/7/2004 - 50.0</v>
       </c>
       <c r="I17" t="str">
         <v>25/8/2005 - 52.5</v>
@@ -1093,7 +1093,7 @@
         <v>13/10/2001 - 21.7</v>
       </c>
       <c r="L17" t="str">
-        <v>12/11/2011 - 20</v>
+        <v>12/11/2011 - 20.0</v>
       </c>
       <c r="M17" t="str">
         <v>30/12/2001 - 46.2</v>
@@ -1148,22 +1148,22 @@
         <v>30/1/2014 - 83.3</v>
       </c>
       <c r="C19" t="str">
-        <v>1/2/2004 - 101</v>
+        <v>1/2/2004 - 101.0</v>
       </c>
       <c r="D19" t="str">
-        <v>31/3/2016 - 107</v>
+        <v>31/3/2016 - 107.0</v>
       </c>
       <c r="E19" t="str">
-        <v>12/4/2009 - 65</v>
+        <v>12/4/2009 - 65.0</v>
       </c>
       <c r="F19" t="str">
-        <v>28/5/2022 - 97</v>
+        <v>28/5/2022 - 97.0</v>
       </c>
       <c r="G19" t="str">
-        <v>13/6/2007 - 111</v>
+        <v>13/6/2007 - 111.0</v>
       </c>
       <c r="H19" t="str">
-        <v>1/7/2000 - 96</v>
+        <v>1/7/2000 - 96.0</v>
       </c>
       <c r="I19" t="str">
         <v>8/8/2008 - 123.4</v>
@@ -1172,7 +1172,7 @@
         <v>9/9/2014 - 68.8</v>
       </c>
       <c r="K19" t="str">
-        <v>15/10/2021 - 38</v>
+        <v>15/10/2021 - 38.0</v>
       </c>
       <c r="L19" t="str">
         <v>27/11/2001 - 27.2</v>
@@ -1195,7 +1195,7 @@
         <v>15/3/1999 - 85.8</v>
       </c>
       <c r="E20" t="str">
-        <v>17/4/2000 - 144</v>
+        <v>17/4/2000 - 144.0</v>
       </c>
       <c r="F20" t="str">
         <v>21/5/2022 - 78.2</v>
@@ -1210,7 +1210,7 @@
         <v>26/8/2009 - 34.6</v>
       </c>
       <c r="J20" t="str">
-        <v>3/9/2001 - 22</v>
+        <v>3/9/2001 - 22.0</v>
       </c>
       <c r="K20" t="str">
         <v>23/10/2010 - 64.4</v>
@@ -1236,7 +1236,7 @@
         <v>2/3/2020 - 93.4</v>
       </c>
       <c r="E21" t="str">
-        <v>19/4/1996 - 75</v>
+        <v>19/4/1996 - 75.0</v>
       </c>
       <c r="F21" t="str">
         <v>5/5/2011 - 72.6</v>
@@ -1251,13 +1251,13 @@
         <v>8/8/2008 - 56.5</v>
       </c>
       <c r="J21" t="str">
-        <v>18/9/2000 - 25</v>
+        <v>18/9/2000 - 25.0</v>
       </c>
       <c r="K21" t="str">
         <v>3/10/2002 - 25.5</v>
       </c>
       <c r="L21" t="str">
-        <v>9/11/1996 - 27</v>
+        <v>9/11/1996 - 27.0</v>
       </c>
       <c r="M21" t="str">
         <v>15/12/2000 - 92.1</v>
@@ -1268,10 +1268,10 @@
         <v>Barra de São Miguel</v>
       </c>
       <c r="B22" t="str">
-        <v>15/1/2000 - 85</v>
+        <v>15/1/2000 - 85.0</v>
       </c>
       <c r="C22" t="str">
-        <v>9/2/1995 - 93</v>
+        <v>9/2/1995 - 93.0</v>
       </c>
       <c r="D22" t="str">
         <v>25/3/1995 - 128.1</v>
@@ -1292,7 +1292,7 @@
         <v>4/8/2022 - 27.7</v>
       </c>
       <c r="J22" t="str">
-        <v>5/9/2007 - 10</v>
+        <v>5/9/2007 - 10.0</v>
       </c>
       <c r="K22" t="str">
         <v>27/10/1999 - 18.5</v>
@@ -1324,7 +1324,7 @@
         <v>14/5/2021 - 157.2</v>
       </c>
       <c r="G23" t="str">
-        <v>28/6/2012 - 168</v>
+        <v>28/6/2012 - 168.0</v>
       </c>
       <c r="H23" t="str">
         <v>5/7/2009 - 102.2</v>
@@ -1336,7 +1336,7 @@
         <v>4/9/2013 - 130.9</v>
       </c>
       <c r="K23" t="str">
-        <v>13/10/2014 - 69</v>
+        <v>13/10/2014 - 69.0</v>
       </c>
       <c r="L23" t="str">
         <v>14/11/2009 - 32.1</v>
@@ -1353,13 +1353,13 @@
         <v>20/1/2004 - 140.3</v>
       </c>
       <c r="C24" t="str">
-        <v>23/2/1999 - 113</v>
+        <v>23/2/1999 - 113.0</v>
       </c>
       <c r="D24" t="str">
         <v>26/3/2008 - 92.2</v>
       </c>
       <c r="E24" t="str">
-        <v>12/4/2009 - 126</v>
+        <v>12/4/2009 - 126.0</v>
       </c>
       <c r="F24" t="str">
         <v>25/5/2022 - 111.2</v>
@@ -1371,19 +1371,19 @@
         <v>6/7/2020 - 78.6</v>
       </c>
       <c r="I24" t="str">
-        <v>8/8/2008 - 67</v>
+        <v>8/8/2008 - 67.0</v>
       </c>
       <c r="J24" t="str">
         <v>9/9/2014 - 55.6</v>
       </c>
       <c r="K24" t="str">
-        <v>14/10/2019 - 17</v>
+        <v>14/10/2019 - 17.0</v>
       </c>
       <c r="L24" t="str">
-        <v>14/11/2007 - 57</v>
+        <v>14/11/2007 - 57.0</v>
       </c>
       <c r="M24" t="str">
-        <v>14/12/2000 - 89</v>
+        <v>14/12/2000 - 89.0</v>
       </c>
     </row>
     <row r="25">
@@ -1391,22 +1391,22 @@
         <v>Belém do Brejo do Cruz</v>
       </c>
       <c r="B25" t="str">
-        <v>27/1/2004 - 60</v>
+        <v>27/1/2004 - 60.0</v>
       </c>
       <c r="C25" t="str">
-        <v>12/2/2017 - 155</v>
+        <v>12/2/2017 - 155.0</v>
       </c>
       <c r="D25" t="str">
-        <v>16/3/2011 - 104</v>
+        <v>16/3/2011 - 104.0</v>
       </c>
       <c r="E25" t="str">
-        <v>3/4/2008 - 191</v>
+        <v>3/4/2008 - 191.0</v>
       </c>
       <c r="F25" t="str">
-        <v>10/5/2013 - 92</v>
+        <v>10/5/2013 - 92.0</v>
       </c>
       <c r="G25" t="str">
-        <v>26/6/1994 - 63</v>
+        <v>26/6/1994 - 63.0</v>
       </c>
       <c r="H25" t="str">
         <v>5/7/2015 - 33.3</v>
@@ -1415,7 +1415,7 @@
         <v>26/8/2009 - 41.8</v>
       </c>
       <c r="J25" t="str">
-        <v>16/9/2000 - 15</v>
+        <v>16/9/2000 - 15.0</v>
       </c>
       <c r="K25" t="str">
         <v>20/10/2011 - 67.4</v>
@@ -1438,22 +1438,22 @@
         <v>14/2/1995 - 112.3</v>
       </c>
       <c r="D26" t="str">
-        <v>14/3/1999 - 159</v>
+        <v>14/3/1999 - 159.0</v>
       </c>
       <c r="E26" t="str">
         <v>6/4/1995 - 94.2</v>
       </c>
       <c r="F26" t="str">
-        <v>10/5/2004 - 128</v>
+        <v>10/5/2004 - 128.0</v>
       </c>
       <c r="G26" t="str">
-        <v>1/6/2017 - 110</v>
+        <v>1/6/2017 - 110.0</v>
       </c>
       <c r="H26" t="str">
         <v>28/7/2014 - 41.9</v>
       </c>
       <c r="I26" t="str">
-        <v>4/8/2022 - 13</v>
+        <v>4/8/2022 - 13.0</v>
       </c>
       <c r="J26" t="str">
         <v>18/9/2000 - 14.8</v>
@@ -1473,13 +1473,13 @@
         <v>Boa Vista</v>
       </c>
       <c r="B27" t="str">
-        <v>18/1/2010 - 73</v>
+        <v>18/1/2010 - 73.0</v>
       </c>
       <c r="C27" t="str">
         <v>22/2/2000 - 136.6</v>
       </c>
       <c r="D27" t="str">
-        <v>29/3/2005 - 99</v>
+        <v>29/3/2005 - 99.0</v>
       </c>
       <c r="E27" t="str">
         <v>7/4/2018 - 119.2</v>
@@ -1488,7 +1488,7 @@
         <v>18/5/2011 - 83.8</v>
       </c>
       <c r="G27" t="str">
-        <v>18/6/2010 - 56</v>
+        <v>18/6/2010 - 56.0</v>
       </c>
       <c r="H27" t="str">
         <v>17/7/2011 - 65.6</v>
@@ -1506,7 +1506,7 @@
         <v>14/11/2011 - 20.4</v>
       </c>
       <c r="M27" t="str">
-        <v>29/12/1999 - 46</v>
+        <v>29/12/1999 - 46.0</v>
       </c>
     </row>
     <row r="28">
@@ -1514,7 +1514,7 @@
         <v>Bom Jesus</v>
       </c>
       <c r="B28" t="str">
-        <v>7/1/2016 - 95</v>
+        <v>7/1/2016 - 95.0</v>
       </c>
       <c r="C28" t="str">
         <v>16/2/2006 - 164.6</v>
@@ -1555,16 +1555,16 @@
         <v>Bom Sucesso</v>
       </c>
       <c r="B29" t="str">
-        <v>22/1/1997 - 115</v>
+        <v>22/1/1997 - 115.0</v>
       </c>
       <c r="C29" t="str">
-        <v>18/2/2017 - 111</v>
+        <v>18/2/2017 - 111.0</v>
       </c>
       <c r="D29" t="str">
         <v>25/3/2023 - 101.3</v>
       </c>
       <c r="E29" t="str">
-        <v>30/4/2019 - 90</v>
+        <v>30/4/2019 - 90.0</v>
       </c>
       <c r="F29" t="str">
         <v>15/5/1999 - 89.2</v>
@@ -1582,10 +1582,10 @@
         <v>2/9/2020 - 4.9</v>
       </c>
       <c r="K29" t="str">
-        <v>24/10/2010 - 77</v>
+        <v>24/10/2010 - 77.0</v>
       </c>
       <c r="L29" t="str">
-        <v>4/11/2013 - 80</v>
+        <v>4/11/2013 - 80.0</v>
       </c>
       <c r="M29" t="str">
         <v>7/12/2018 - 82.2</v>
@@ -1599,37 +1599,37 @@
         <v>13/1/2002 - 146.3</v>
       </c>
       <c r="C30" t="str">
-        <v>16/2/2011 - 100</v>
+        <v>16/2/2011 - 100.0</v>
       </c>
       <c r="D30" t="str">
-        <v>24/3/2005 - 133</v>
+        <v>24/3/2005 - 133.0</v>
       </c>
       <c r="E30" t="str">
-        <v>18/4/2014 - 87</v>
+        <v>18/4/2014 - 87.0</v>
       </c>
       <c r="F30" t="str">
-        <v>23/5/1994 - 110</v>
+        <v>23/5/1994 - 110.0</v>
       </c>
       <c r="G30" t="str">
         <v>23/6/2013 - 88.2</v>
       </c>
       <c r="H30" t="str">
-        <v>28/7/2014 - 46</v>
+        <v>28/7/2014 - 46.0</v>
       </c>
       <c r="I30" t="str">
-        <v>24/8/2011 - 13</v>
+        <v>24/8/2011 - 13.0</v>
       </c>
       <c r="J30" t="str">
-        <v>30/9/2000 - 45</v>
+        <v>30/9/2000 - 45.0</v>
       </c>
       <c r="K30" t="str">
         <v>19/10/2011 - 126.4</v>
       </c>
       <c r="L30" t="str">
-        <v>2/11/2011 - 104</v>
+        <v>2/11/2011 - 104.0</v>
       </c>
       <c r="M30" t="str">
-        <v>17/12/2010 - 82</v>
+        <v>17/12/2010 - 82.0</v>
       </c>
     </row>
     <row r="31">
@@ -1637,16 +1637,16 @@
         <v>Boqueirão/Açude Boqueirão</v>
       </c>
       <c r="B31" t="str">
-        <v>21/1/2004 - 96</v>
+        <v>21/1/2004 - 96.0</v>
       </c>
       <c r="C31" t="str">
-        <v>15/2/2002 - 68</v>
+        <v>15/2/2002 - 68.0</v>
       </c>
       <c r="D31" t="str">
-        <v>19/3/2020 - 99</v>
+        <v>19/3/2020 - 99.0</v>
       </c>
       <c r="E31" t="str">
-        <v>29/4/2011 - 137</v>
+        <v>29/4/2011 - 137.0</v>
       </c>
       <c r="F31" t="str">
         <v>29/5/2014 - 46.6</v>
@@ -1678,7 +1678,7 @@
         <v>Borborema</v>
       </c>
       <c r="B32" t="str">
-        <v>30/1/2012 - 78</v>
+        <v>30/1/2012 - 78.0</v>
       </c>
       <c r="C32" t="str">
         <v>1/2/2004 - 121.4</v>
@@ -1708,10 +1708,10 @@
         <v>3/10/2001 - 38.1</v>
       </c>
       <c r="L32" t="str">
-        <v>12/11/2011 - 32</v>
+        <v>12/11/2011 - 32.0</v>
       </c>
       <c r="M32" t="str">
-        <v>29/12/2016 - 67</v>
+        <v>29/12/2016 - 67.0</v>
       </c>
     </row>
     <row r="33">
@@ -1722,13 +1722,13 @@
         <v>15/1/2022 - 103.8</v>
       </c>
       <c r="C33" t="str">
-        <v>12/2/2017 - 116</v>
+        <v>12/2/2017 - 116.0</v>
       </c>
       <c r="D33" t="str">
         <v>4/3/1996 - 146.5</v>
       </c>
       <c r="E33" t="str">
-        <v>20/4/2013 - 132</v>
+        <v>20/4/2013 - 132.0</v>
       </c>
       <c r="F33" t="str">
         <v>6/5/2008 - 149.8</v>
@@ -1737,7 +1737,7 @@
         <v>26/6/1994 - 83.6</v>
       </c>
       <c r="H33" t="str">
-        <v>5/7/2015 - 44</v>
+        <v>5/7/2015 - 44.0</v>
       </c>
       <c r="I33" t="str">
         <v>26/8/2009 - 55.9</v>
@@ -1749,7 +1749,7 @@
         <v>20/10/2011 - 37.6</v>
       </c>
       <c r="L33" t="str">
-        <v>4/11/2013 - 64</v>
+        <v>4/11/2013 - 64.0</v>
       </c>
       <c r="M33" t="str">
         <v>8/12/2005 - 57.2</v>
@@ -1760,19 +1760,19 @@
         <v>Brejo dos Santos</v>
       </c>
       <c r="B34" t="str">
-        <v>22/1/2020 - 113</v>
+        <v>22/1/2020 - 113.0</v>
       </c>
       <c r="C34" t="str">
         <v>18/2/2007 - 105.5</v>
       </c>
       <c r="D34" t="str">
-        <v>14/3/1994 - 102</v>
+        <v>14/3/1994 - 102.0</v>
       </c>
       <c r="E34" t="str">
-        <v>29/4/1996 - 122</v>
+        <v>29/4/1996 - 122.0</v>
       </c>
       <c r="F34" t="str">
-        <v>6/5/2008 - 101</v>
+        <v>6/5/2008 - 101.0</v>
       </c>
       <c r="G34" t="str">
         <v>15/6/2005 - 100.3</v>
@@ -1781,19 +1781,19 @@
         <v>23/7/1996 - 41.2</v>
       </c>
       <c r="I34" t="str">
-        <v>5/8/2022 - 32</v>
+        <v>5/8/2022 - 32.0</v>
       </c>
       <c r="J34" t="str">
         <v>15/9/2021 - 9.3</v>
       </c>
       <c r="K34" t="str">
-        <v>24/10/2010 - 31</v>
+        <v>24/10/2010 - 31.0</v>
       </c>
       <c r="L34" t="str">
         <v>24/11/1995 - 78.4</v>
       </c>
       <c r="M34" t="str">
-        <v>19/12/2013 - 60</v>
+        <v>19/12/2013 - 60.0</v>
       </c>
     </row>
     <row r="35">
@@ -1842,19 +1842,19 @@
         <v>Cabaceiras</v>
       </c>
       <c r="B36" t="str">
-        <v>31/1/2009 - 54</v>
+        <v>31/1/2009 - 54.0</v>
       </c>
       <c r="C36" t="str">
-        <v>15/2/2002 - 172</v>
+        <v>15/2/2002 - 172.0</v>
       </c>
       <c r="D36" t="str">
         <v>18/3/2008 - 218.2</v>
       </c>
       <c r="E36" t="str">
-        <v>6/4/2009 - 63</v>
+        <v>6/4/2009 - 63.0</v>
       </c>
       <c r="F36" t="str">
-        <v>21/5/2022 - 163</v>
+        <v>21/5/2022 - 163.0</v>
       </c>
       <c r="G36" t="str">
         <v>21/6/2006 - 65.2</v>
@@ -1904,7 +1904,7 @@
         <v>5/7/2015 - 30.5</v>
       </c>
       <c r="I37" t="str">
-        <v>10/8/1996 - 16</v>
+        <v>10/8/1996 - 16.0</v>
       </c>
       <c r="J37" t="str">
         <v>12/9/2016 - 6.7</v>
@@ -1924,28 +1924,28 @@
         <v>Cacimba de Areia</v>
       </c>
       <c r="B38" t="str">
-        <v>20/1/2013 - 130</v>
+        <v>20/1/2013 - 130.0</v>
       </c>
       <c r="C38" t="str">
         <v>1/2/2020 - 116.5</v>
       </c>
       <c r="D38" t="str">
-        <v>30/3/2016 - 165</v>
+        <v>30/3/2016 - 165.0</v>
       </c>
       <c r="E38" t="str">
-        <v>4/4/2019 - 89</v>
+        <v>4/4/2019 - 89.0</v>
       </c>
       <c r="F38" t="str">
         <v>15/5/1999 - 193.4</v>
       </c>
       <c r="G38" t="str">
-        <v>15/6/2005 - 42</v>
+        <v>15/6/2005 - 42.0</v>
       </c>
       <c r="H38" t="str">
-        <v>5/7/2015 - 25</v>
+        <v>5/7/2015 - 25.0</v>
       </c>
       <c r="I38" t="str">
-        <v>26/8/2009 - 25</v>
+        <v>26/8/2009 - 25.0</v>
       </c>
       <c r="J38" t="str">
         <v>7/9/2000 - 62.2</v>
@@ -1954,7 +1954,7 @@
         <v>24/10/2010 - 45.5</v>
       </c>
       <c r="L38" t="str">
-        <v>3/11/2020 - 60</v>
+        <v>3/11/2020 - 60.0</v>
       </c>
       <c r="M38" t="str">
         <v>16/12/2007 - 94.2</v>
@@ -1971,19 +1971,19 @@
         <v>23/2/1999 - 72.4</v>
       </c>
       <c r="D39" t="str">
-        <v>29/3/2021 - 124</v>
+        <v>29/3/2021 - 124.0</v>
       </c>
       <c r="E39" t="str">
-        <v>9/4/2018 - 73</v>
+        <v>9/4/2018 - 73.0</v>
       </c>
       <c r="F39" t="str">
         <v>11/5/2016 - 112.3</v>
       </c>
       <c r="G39" t="str">
-        <v>9/6/2008 - 69</v>
+        <v>9/6/2008 - 69.0</v>
       </c>
       <c r="H39" t="str">
-        <v>21/7/2017 - 83</v>
+        <v>21/7/2017 - 83.0</v>
       </c>
       <c r="I39" t="str">
         <v>8/8/2008 - 79.2</v>
@@ -1995,7 +1995,7 @@
         <v>24/10/2010 - 18.3</v>
       </c>
       <c r="L39" t="str">
-        <v>14/11/2007 - 40</v>
+        <v>14/11/2007 - 40.0</v>
       </c>
       <c r="M39" t="str">
         <v>5/12/2001 - 50.6</v>
@@ -2033,10 +2033,10 @@
         <v>9/9/2014 - 45.4</v>
       </c>
       <c r="K40" t="str">
-        <v>25/10/2010 - 31</v>
+        <v>25/10/2010 - 31.0</v>
       </c>
       <c r="L40" t="str">
-        <v>28/11/1999 - 25</v>
+        <v>28/11/1999 - 25.0</v>
       </c>
       <c r="M40" t="str">
         <v>29/12/2016 - 45.7</v>
@@ -2059,7 +2059,7 @@
         <v>15/4/1997 - 115.4</v>
       </c>
       <c r="F41" t="str">
-        <v>29/5/2003 - 104</v>
+        <v>29/5/2003 - 104.0</v>
       </c>
       <c r="G41" t="str">
         <v>5/6/1994 - 47.4</v>
@@ -2071,16 +2071,16 @@
         <v>4/8/2022 - 15.5</v>
       </c>
       <c r="J41" t="str">
-        <v>18/9/2000 - 13</v>
+        <v>18/9/2000 - 13.0</v>
       </c>
       <c r="K41" t="str">
-        <v>21/10/2011 - 168</v>
+        <v>21/10/2011 - 168.0</v>
       </c>
       <c r="L41" t="str">
         <v>13/11/2022 - 83.1</v>
       </c>
       <c r="M41" t="str">
-        <v>10/12/2008 - 86</v>
+        <v>10/12/2008 - 86.0</v>
       </c>
     </row>
     <row r="42">
@@ -2094,13 +2094,13 @@
         <v>19/2/2012 - 150.3</v>
       </c>
       <c r="D42" t="str">
-        <v>30/3/2000 - 174</v>
+        <v>30/3/2000 - 174.0</v>
       </c>
       <c r="E42" t="str">
         <v>12/4/2022 - 124.7</v>
       </c>
       <c r="F42" t="str">
-        <v>23/5/1995 - 85</v>
+        <v>23/5/1995 - 85.0</v>
       </c>
       <c r="G42" t="str">
         <v>11/6/2022 - 56.4</v>
@@ -2112,7 +2112,7 @@
         <v>5/8/2008 - 15.3</v>
       </c>
       <c r="J42" t="str">
-        <v>17/9/2000 - 20</v>
+        <v>17/9/2000 - 20.0</v>
       </c>
       <c r="K42" t="str">
         <v>21/10/2011 - 170.4</v>
@@ -2138,10 +2138,10 @@
         <v>31/3/2019 - 107.8</v>
       </c>
       <c r="E43" t="str">
-        <v>10/4/2019 - 97</v>
+        <v>10/4/2019 - 97.0</v>
       </c>
       <c r="F43" t="str">
-        <v>29/5/2003 - 75</v>
+        <v>29/5/2003 - 75.0</v>
       </c>
       <c r="G43" t="str">
         <v>11/6/2022 - 93.3</v>
@@ -2153,7 +2153,7 @@
         <v>9/8/2000 - 32.6</v>
       </c>
       <c r="J43" t="str">
-        <v>24/9/2014 - 15</v>
+        <v>24/9/2014 - 15.0</v>
       </c>
       <c r="K43" t="str">
         <v>21/10/2011 - 122.3</v>
@@ -2162,7 +2162,7 @@
         <v>25/11/2007 - 80.2</v>
       </c>
       <c r="M43" t="str">
-        <v>21/12/1999 - 102</v>
+        <v>21/12/1999 - 102.0</v>
       </c>
     </row>
     <row r="44">
@@ -2176,7 +2176,7 @@
         <v>1/2/2004 - 126.6</v>
       </c>
       <c r="D44" t="str">
-        <v>10/3/2001 - 98</v>
+        <v>10/3/2001 - 98.0</v>
       </c>
       <c r="E44" t="str">
         <v>20/4/2013 - 70.4</v>
@@ -2211,10 +2211,10 @@
         <v>Camalaú</v>
       </c>
       <c r="B45" t="str">
-        <v>26/1/2004 - 96</v>
+        <v>26/1/2004 - 96.0</v>
       </c>
       <c r="C45" t="str">
-        <v>13/2/1994 - 98</v>
+        <v>13/2/1994 - 98.0</v>
       </c>
       <c r="D45" t="str">
         <v>17/3/2020 - 85.6</v>
@@ -2226,10 +2226,10 @@
         <v>16/5/2019 - 114.1</v>
       </c>
       <c r="G45" t="str">
-        <v>18/6/2010 - 51</v>
+        <v>18/6/2010 - 51.0</v>
       </c>
       <c r="H45" t="str">
-        <v>7/7/2004 - 56</v>
+        <v>7/7/2004 - 56.0</v>
       </c>
       <c r="I45" t="str">
         <v>26/8/2009 - 30.9</v>
@@ -2238,7 +2238,7 @@
         <v>15/9/2010 - 4.4</v>
       </c>
       <c r="K45" t="str">
-        <v>22/10/2010 - 51</v>
+        <v>22/10/2010 - 51.0</v>
       </c>
       <c r="L45" t="str">
         <v>4/11/2022 - 33.6</v>
@@ -2255,7 +2255,7 @@
         <v>19/1/2004 - 128.5</v>
       </c>
       <c r="C46" t="str">
-        <v>19/2/2012 - 59</v>
+        <v>19/2/2012 - 59.0</v>
       </c>
       <c r="D46" t="str">
         <v>15/3/1999 - 171.5</v>
@@ -2267,22 +2267,22 @@
         <v>28/5/2022 - 54.1</v>
       </c>
       <c r="G46" t="str">
-        <v>27/6/2001 - 70</v>
+        <v>27/6/2001 - 70.0</v>
       </c>
       <c r="H46" t="str">
-        <v>17/7/2011 - 75</v>
+        <v>17/7/2011 - 75.0</v>
       </c>
       <c r="I46" t="str">
-        <v>19/8/2000 - 30</v>
+        <v>19/8/2000 - 30.0</v>
       </c>
       <c r="J46" t="str">
-        <v>5/9/2014 - 32</v>
+        <v>5/9/2014 - 32.0</v>
       </c>
       <c r="K46" t="str">
         <v>13/10/2001 - 13.1</v>
       </c>
       <c r="L46" t="str">
-        <v>4/11/2013 - 50</v>
+        <v>4/11/2013 - 50.0</v>
       </c>
       <c r="M46" t="str">
         <v>24/12/2022 - 70.1</v>
@@ -2293,16 +2293,16 @@
         <v>Campina Grande/São José da Mata</v>
       </c>
       <c r="B47" t="str">
-        <v>20/1/2010 - 74</v>
+        <v>20/1/2010 - 74.0</v>
       </c>
       <c r="C47" t="str">
-        <v>17/2/2000 - 106</v>
+        <v>17/2/2000 - 106.0</v>
       </c>
       <c r="D47" t="str">
-        <v>2/3/2020 - 76</v>
+        <v>2/3/2020 - 76.0</v>
       </c>
       <c r="E47" t="str">
-        <v>29/4/2011 - 85</v>
+        <v>29/4/2011 - 85.0</v>
       </c>
       <c r="F47" t="str">
         <v>28/5/2022 - 55.7</v>
@@ -2311,13 +2311,13 @@
         <v>18/6/2010 - 66.7</v>
       </c>
       <c r="H47" t="str">
-        <v>17/7/2011 - 120</v>
+        <v>17/7/2011 - 120.0</v>
       </c>
       <c r="I47" t="str">
         <v>25/8/2005 - 54.8</v>
       </c>
       <c r="J47" t="str">
-        <v>9/9/2014 - 50</v>
+        <v>9/9/2014 - 50.0</v>
       </c>
       <c r="K47" t="str">
         <v>23/10/2010 - 26.2</v>
@@ -2326,7 +2326,7 @@
         <v>28/11/2023 - 14.6</v>
       </c>
       <c r="M47" t="str">
-        <v>7/12/2005 - 52</v>
+        <v>7/12/2005 - 52.0</v>
       </c>
     </row>
     <row r="48">
@@ -2367,7 +2367,7 @@
         <v>28/11/2023 - 35.2</v>
       </c>
       <c r="M48" t="str">
-        <v>28/12/1994 - 46</v>
+        <v>28/12/1994 - 46.0</v>
       </c>
     </row>
     <row r="49">
@@ -2375,7 +2375,7 @@
         <v>Campo de Santana/Tacima</v>
       </c>
       <c r="B49" t="str">
-        <v>24/1/2005 - 122</v>
+        <v>24/1/2005 - 122.0</v>
       </c>
       <c r="C49" t="str">
         <v>23/2/1999 - 96.3</v>
@@ -2384,16 +2384,16 @@
         <v>22/3/2023 - 132.3</v>
       </c>
       <c r="E49" t="str">
-        <v>3/4/1997 - 75</v>
+        <v>3/4/1997 - 75.0</v>
       </c>
       <c r="F49" t="str">
-        <v>2/5/1997 - 105</v>
+        <v>2/5/1997 - 105.0</v>
       </c>
       <c r="G49" t="str">
         <v>12/6/2007 - 90.6</v>
       </c>
       <c r="H49" t="str">
-        <v>1/7/2000 - 110</v>
+        <v>1/7/2000 - 110.0</v>
       </c>
       <c r="I49" t="str">
         <v>8/8/2008 - 83.9</v>
@@ -2402,13 +2402,13 @@
         <v>4/9/2013 - 50.6</v>
       </c>
       <c r="K49" t="str">
-        <v>18/10/2003 - 11</v>
+        <v>18/10/2003 - 11.0</v>
       </c>
       <c r="L49" t="str">
         <v>14/11/2007 - 40.8</v>
       </c>
       <c r="M49" t="str">
-        <v>21/12/2013 - 88</v>
+        <v>21/12/2013 - 88.0</v>
       </c>
     </row>
     <row r="50">
@@ -2416,10 +2416,10 @@
         <v>Caraúbas</v>
       </c>
       <c r="B50" t="str">
-        <v>25/1/2005 - 66</v>
+        <v>25/1/2005 - 66.0</v>
       </c>
       <c r="C50" t="str">
-        <v>17/2/2021 - 135</v>
+        <v>17/2/2021 - 135.0</v>
       </c>
       <c r="D50" t="str">
         <v>26/3/1997 - 146.2</v>
@@ -2428,10 +2428,10 @@
         <v>19/4/1996 - 58.9</v>
       </c>
       <c r="F50" t="str">
-        <v>6/5/2008 - 84</v>
+        <v>6/5/2008 - 84.0</v>
       </c>
       <c r="G50" t="str">
-        <v>18/6/2010 - 65</v>
+        <v>18/6/2010 - 65.0</v>
       </c>
       <c r="H50" t="str">
         <v>20/7/2009 - 55.5</v>
@@ -2449,7 +2449,7 @@
         <v>7/11/2022 - 109.3</v>
       </c>
       <c r="M50" t="str">
-        <v>28/12/1999 - 93</v>
+        <v>28/12/1999 - 93.0</v>
       </c>
     </row>
     <row r="51">
@@ -2457,37 +2457,37 @@
         <v>Carrapateira</v>
       </c>
       <c r="B51" t="str">
-        <v>14/1/1998 - 136</v>
+        <v>14/1/1998 - 136.0</v>
       </c>
       <c r="C51" t="str">
         <v>12/2/2001 - 153.6</v>
       </c>
       <c r="D51" t="str">
-        <v>12/3/2022 - 153</v>
+        <v>12/3/2022 - 153.0</v>
       </c>
       <c r="E51" t="str">
-        <v>14/4/2009 - 137</v>
+        <v>14/4/2009 - 137.0</v>
       </c>
       <c r="F51" t="str">
         <v>26/5/2020 - 83.7</v>
       </c>
       <c r="G51" t="str">
-        <v>1/6/2002 - 58</v>
+        <v>1/6/2002 - 58.0</v>
       </c>
       <c r="H51" t="str">
-        <v>4/7/2015 - 40</v>
+        <v>4/7/2015 - 40.0</v>
       </c>
       <c r="I51" t="str">
         <v>6/8/1997 - 20.4</v>
       </c>
       <c r="J51" t="str">
-        <v>24/9/2014 - 35</v>
+        <v>24/9/2014 - 35.0</v>
       </c>
       <c r="K51" t="str">
-        <v>22/10/2010 - 125</v>
+        <v>22/10/2010 - 125.0</v>
       </c>
       <c r="L51" t="str">
-        <v>18/11/2014 - 67</v>
+        <v>18/11/2014 - 67.0</v>
       </c>
       <c r="M51" t="str">
         <v>19/12/2013 - 85.6</v>
@@ -2507,7 +2507,7 @@
         <v>19/3/2008 - 60.7</v>
       </c>
       <c r="E52" t="str">
-        <v>29/4/2011 - 78</v>
+        <v>29/4/2011 - 78.0</v>
       </c>
       <c r="F52" t="str">
         <v>5/5/2011 - 76.6</v>
@@ -2545,13 +2545,13 @@
         <v>1/2/2008 - 151.7</v>
       </c>
       <c r="D53" t="str">
-        <v>31/3/2019 - 120</v>
+        <v>31/3/2019 - 120.0</v>
       </c>
       <c r="E53" t="str">
-        <v>9/4/2018 - 110</v>
+        <v>9/4/2018 - 110.0</v>
       </c>
       <c r="F53" t="str">
-        <v>29/5/2014 - 86</v>
+        <v>29/5/2014 - 86.0</v>
       </c>
       <c r="G53" t="str">
         <v>29/6/1994 - 43.8</v>
@@ -2589,7 +2589,7 @@
         <v>19/3/2013 - 115.5</v>
       </c>
       <c r="E54" t="str">
-        <v>5/4/1996 - 168</v>
+        <v>5/4/1996 - 168.0</v>
       </c>
       <c r="F54" t="str">
         <v>15/5/2006 - 86.9</v>
@@ -2621,7 +2621,7 @@
         <v xml:space="preserve">Catolé do Rocha/Escola Técnica </v>
       </c>
       <c r="B55" t="str">
-        <v>23/1/2009 - 126</v>
+        <v>23/1/2009 - 126.0</v>
       </c>
       <c r="C55" t="str">
         <v>13/2/2002 - 93.5</v>
@@ -2639,7 +2639,7 @@
         <v>28/6/2009 - 82.9</v>
       </c>
       <c r="H55" t="str">
-        <v>12/7/2011 - 46</v>
+        <v>12/7/2011 - 46.0</v>
       </c>
       <c r="I55" t="str">
         <v>9/8/2000 - 28.4</v>
@@ -2648,13 +2648,13 @@
         <v>15/9/2021 - 9.8</v>
       </c>
       <c r="K55" t="str">
-        <v>27/10/1999 - 45</v>
+        <v>27/10/1999 - 45.0</v>
       </c>
       <c r="L55" t="str">
         <v>4/11/2013 - 110.7</v>
       </c>
       <c r="M55" t="str">
-        <v>20/12/2013 - 58</v>
+        <v>20/12/2013 - 58.0</v>
       </c>
     </row>
     <row r="56">
@@ -2662,7 +2662,7 @@
         <v>Conceição</v>
       </c>
       <c r="B56" t="str">
-        <v>30/1/2004 - 104</v>
+        <v>30/1/2004 - 104.0</v>
       </c>
       <c r="C56" t="str">
         <v>19/2/2006 - 90.4</v>
@@ -2677,7 +2677,7 @@
         <v>25/5/1995 - 80.4</v>
       </c>
       <c r="G56" t="str">
-        <v>17/6/1994 - 69</v>
+        <v>17/6/1994 - 69.0</v>
       </c>
       <c r="H56" t="str">
         <v>11/7/2002 - 44.2</v>
@@ -2686,13 +2686,13 @@
         <v>20/8/2023 - 28.5</v>
       </c>
       <c r="J56" t="str">
-        <v>29/9/2020 - 22</v>
+        <v>29/9/2020 - 22.0</v>
       </c>
       <c r="K56" t="str">
         <v>21/10/2011 - 59.1</v>
       </c>
       <c r="L56" t="str">
-        <v>5/11/2022 - 89</v>
+        <v>5/11/2022 - 89.0</v>
       </c>
       <c r="M56" t="str">
         <v>19/12/2013 - 58.6</v>
@@ -2703,40 +2703,40 @@
         <v>Condado</v>
       </c>
       <c r="B57" t="str">
-        <v>18/1/2004 - 109</v>
+        <v>18/1/2004 - 109.0</v>
       </c>
       <c r="C57" t="str">
-        <v>20/2/2017 - 170</v>
+        <v>20/2/2017 - 170.0</v>
       </c>
       <c r="D57" t="str">
-        <v>18/3/2008 - 145</v>
+        <v>18/3/2008 - 145.0</v>
       </c>
       <c r="E57" t="str">
         <v>21/4/1996 - 132.5</v>
       </c>
       <c r="F57" t="str">
-        <v>4/5/2005 - 78</v>
+        <v>4/5/2005 - 78.0</v>
       </c>
       <c r="G57" t="str">
         <v>1/6/2004 - 36.8</v>
       </c>
       <c r="H57" t="str">
-        <v>1/7/2017 - 58</v>
+        <v>1/7/2017 - 58.0</v>
       </c>
       <c r="I57" t="str">
-        <v>4/8/2022 - 103</v>
+        <v>4/8/2022 - 103.0</v>
       </c>
       <c r="J57" t="str">
-        <v>8/9/2000 - 60</v>
+        <v>8/9/2000 - 60.0</v>
       </c>
       <c r="K57" t="str">
-        <v>23/10/2010 - 173</v>
+        <v>23/10/2010 - 173.0</v>
       </c>
       <c r="L57" t="str">
         <v>24/11/1995 - 82.6</v>
       </c>
       <c r="M57" t="str">
-        <v>29/12/2004 - 111</v>
+        <v>29/12/2004 - 111.0</v>
       </c>
     </row>
     <row r="58">
@@ -2744,16 +2744,16 @@
         <v>Conde/Açude Gramame Mamuaba</v>
       </c>
       <c r="B58" t="str">
-        <v>31/1/2009 - 95</v>
+        <v>31/1/2009 - 95.0</v>
       </c>
       <c r="C58" t="str">
-        <v>24/2/2003 - 130</v>
+        <v>24/2/2003 - 130.0</v>
       </c>
       <c r="D58" t="str">
-        <v>6/3/2015 - 90</v>
+        <v>6/3/2015 - 90.0</v>
       </c>
       <c r="E58" t="str">
-        <v>13/4/2011 - 120</v>
+        <v>13/4/2011 - 120.0</v>
       </c>
       <c r="F58" t="str">
         <v>20/5/1999 - 119.4</v>
@@ -2762,22 +2762,22 @@
         <v>26/6/2000 - 135.5</v>
       </c>
       <c r="H58" t="str">
-        <v>16/7/2011 - 130</v>
+        <v>16/7/2011 - 130.0</v>
       </c>
       <c r="I58" t="str">
-        <v>20/8/2023 - 76</v>
+        <v>20/8/2023 - 76.0</v>
       </c>
       <c r="J58" t="str">
-        <v>17/9/2000 - 148</v>
+        <v>17/9/2000 - 148.0</v>
       </c>
       <c r="K58" t="str">
         <v>5/10/1999 - 35.2</v>
       </c>
       <c r="L58" t="str">
-        <v>14/11/2009 - 28</v>
+        <v>14/11/2009 - 28.0</v>
       </c>
       <c r="M58" t="str">
-        <v>29/12/2015 - 68</v>
+        <v>29/12/2015 - 68.0</v>
       </c>
     </row>
     <row r="59">
@@ -2785,22 +2785,22 @@
         <v>Congo</v>
       </c>
       <c r="B59" t="str">
-        <v>25/1/2005 - 130</v>
+        <v>25/1/2005 - 130.0</v>
       </c>
       <c r="C59" t="str">
-        <v>17/2/1995 - 87</v>
+        <v>17/2/1995 - 87.0</v>
       </c>
       <c r="D59" t="str">
         <v>25/3/2005 - 170.2</v>
       </c>
       <c r="E59" t="str">
-        <v>10/4/2010 - 70</v>
+        <v>10/4/2010 - 70.0</v>
       </c>
       <c r="F59" t="str">
         <v>6/5/2009 - 127.6</v>
       </c>
       <c r="G59" t="str">
-        <v>8/6/2006 - 65</v>
+        <v>8/6/2006 - 65.0</v>
       </c>
       <c r="H59" t="str">
         <v>7/7/1999 - 63.6</v>
@@ -2818,7 +2818,7 @@
         <v>5/11/2022 - 73.5</v>
       </c>
       <c r="M59" t="str">
-        <v>29/12/1999 - 91</v>
+        <v>29/12/1999 - 91.0</v>
       </c>
     </row>
     <row r="60">
@@ -2835,7 +2835,7 @@
         <v>27/3/2015 - 103.1</v>
       </c>
       <c r="E60" t="str">
-        <v>23/4/2020 - 108</v>
+        <v>23/4/2020 - 108.0</v>
       </c>
       <c r="F60" t="str">
         <v>6/5/2008 - 94.6</v>
@@ -2844,7 +2844,7 @@
         <v>11/6/2022 - 47.9</v>
       </c>
       <c r="H60" t="str">
-        <v>1/7/2017 - 84</v>
+        <v>1/7/2017 - 84.0</v>
       </c>
       <c r="I60" t="str">
         <v>4/8/2022 - 97.5</v>
@@ -2867,7 +2867,7 @@
         <v>Coxixola</v>
       </c>
       <c r="B61" t="str">
-        <v>25/1/2005 - 113</v>
+        <v>25/1/2005 - 113.0</v>
       </c>
       <c r="C61" t="str">
         <v>19/2/2012 - 137.4</v>
@@ -2879,28 +2879,28 @@
         <v>21/4/2011 - 136.9</v>
       </c>
       <c r="F61" t="str">
-        <v>14/5/2006 - 163</v>
+        <v>14/5/2006 - 163.0</v>
       </c>
       <c r="G61" t="str">
         <v>8/6/2006 - 89.2</v>
       </c>
       <c r="H61" t="str">
-        <v>7/7/1999 - 45</v>
+        <v>7/7/1999 - 45.0</v>
       </c>
       <c r="I61" t="str">
-        <v>6/8/2000 - 26</v>
+        <v>6/8/2000 - 26.0</v>
       </c>
       <c r="J61" t="str">
-        <v>18/9/1996 - 50</v>
+        <v>18/9/1996 - 50.0</v>
       </c>
       <c r="K61" t="str">
         <v>24/10/2010 - 123.4</v>
       </c>
       <c r="L61" t="str">
-        <v>23/11/1995 - 79</v>
+        <v>23/11/1995 - 79.0</v>
       </c>
       <c r="M61" t="str">
-        <v>25/12/2015 - 55</v>
+        <v>25/12/2015 - 55.0</v>
       </c>
     </row>
     <row r="62">
@@ -2911,7 +2911,7 @@
         <v>30/1/2009 - 74.3</v>
       </c>
       <c r="C62" t="str">
-        <v>23/2/2006 - 105</v>
+        <v>23/2/2006 - 105.0</v>
       </c>
       <c r="D62" t="str">
         <v>6/3/2015 - 87.8</v>
@@ -2941,7 +2941,7 @@
         <v>9/11/2020 - 14.6</v>
       </c>
       <c r="M62" t="str">
-        <v>22/12/1997 - 39</v>
+        <v>22/12/1997 - 39.0</v>
       </c>
     </row>
     <row r="63">
@@ -2973,7 +2973,7 @@
         <v>26/8/2009 - 38.4</v>
       </c>
       <c r="J63" t="str">
-        <v>3/9/2001 - 27</v>
+        <v>3/9/2001 - 27.0</v>
       </c>
       <c r="K63" t="str">
         <v>24/10/2010 - 35.3</v>
@@ -2990,7 +2990,7 @@
         <v>Cuité</v>
       </c>
       <c r="B64" t="str">
-        <v>23/1/1995 - 196</v>
+        <v>23/1/1995 - 196.0</v>
       </c>
       <c r="C64" t="str">
         <v>5/2/2019 - 123.2</v>
@@ -3011,7 +3011,7 @@
         <v>1/7/2000 - 71.2</v>
       </c>
       <c r="I64" t="str">
-        <v>20/8/2023 - 40</v>
+        <v>20/8/2023 - 40.0</v>
       </c>
       <c r="J64" t="str">
         <v>4/9/2013 - 42.7</v>
@@ -3034,37 +3034,37 @@
         <v>27/1/2018 - 97.7</v>
       </c>
       <c r="C65" t="str">
-        <v>6/2/1996 - 130</v>
+        <v>6/2/1996 - 130.0</v>
       </c>
       <c r="D65" t="str">
-        <v>14/3/1999 - 140</v>
+        <v>14/3/1999 - 140.0</v>
       </c>
       <c r="E65" t="str">
         <v>5/4/2013 - 138.2</v>
       </c>
       <c r="F65" t="str">
-        <v>10/5/2001 - 85</v>
+        <v>10/5/2001 - 85.0</v>
       </c>
       <c r="G65" t="str">
-        <v>3/6/2005 - 71</v>
+        <v>3/6/2005 - 71.0</v>
       </c>
       <c r="H65" t="str">
-        <v>31/7/2022 - 42</v>
+        <v>31/7/2022 - 42.0</v>
       </c>
       <c r="I65" t="str">
-        <v>20/8/2023 - 15</v>
+        <v>20/8/2023 - 15.0</v>
       </c>
       <c r="J65" t="str">
         <v>6/9/2000 - 5.2</v>
       </c>
       <c r="K65" t="str">
-        <v>19/10/2011 - 77</v>
+        <v>19/10/2011 - 77.0</v>
       </c>
       <c r="L65" t="str">
-        <v>21/11/2020 - 96</v>
+        <v>21/11/2020 - 96.0</v>
       </c>
       <c r="M65" t="str">
-        <v>21/12/2013 - 98</v>
+        <v>21/12/2013 - 98.0</v>
       </c>
     </row>
     <row r="66">
@@ -3075,7 +3075,7 @@
         <v>2/1/2010 - 140.3</v>
       </c>
       <c r="C66" t="str">
-        <v>16/2/2021 - 178</v>
+        <v>16/2/2021 - 178.0</v>
       </c>
       <c r="D66" t="str">
         <v>20/3/2008 - 144.3</v>
@@ -3084,7 +3084,7 @@
         <v>14/4/2009 - 143.9</v>
       </c>
       <c r="F66" t="str">
-        <v>26/5/2020 - 140</v>
+        <v>26/5/2020 - 140.0</v>
       </c>
       <c r="G66" t="str">
         <v>12/6/2009 - 38.3</v>
@@ -3093,10 +3093,10 @@
         <v>8/7/2015 - 80.3</v>
       </c>
       <c r="I66" t="str">
-        <v>22/8/2014 - 21</v>
+        <v>22/8/2014 - 21.0</v>
       </c>
       <c r="J66" t="str">
-        <v>8/9/2000 - 40</v>
+        <v>8/9/2000 - 40.0</v>
       </c>
       <c r="K66" t="str">
         <v>24/10/2010 - 47.2</v>
@@ -3105,7 +3105,7 @@
         <v>30/11/2022 - 105.5</v>
       </c>
       <c r="M66" t="str">
-        <v>23/12/1999 - 97</v>
+        <v>23/12/1999 - 97.0</v>
       </c>
     </row>
     <row r="67">
@@ -3116,19 +3116,19 @@
         <v>19/1/2003 - 112.2</v>
       </c>
       <c r="C67" t="str">
-        <v>9/2/2021 - 94</v>
+        <v>9/2/2021 - 94.0</v>
       </c>
       <c r="D67" t="str">
         <v>14/3/1999 - 159.1</v>
       </c>
       <c r="E67" t="str">
-        <v>17/4/2022 - 120</v>
+        <v>17/4/2022 - 120.0</v>
       </c>
       <c r="F67" t="str">
-        <v>15/5/2019 - 106</v>
+        <v>15/5/2019 - 106.0</v>
       </c>
       <c r="G67" t="str">
-        <v>1/6/2017 - 95</v>
+        <v>1/6/2017 - 95.0</v>
       </c>
       <c r="H67" t="str">
         <v>28/7/2014 - 43.2</v>
@@ -3137,16 +3137,16 @@
         <v>4/8/2022 - 28.7</v>
       </c>
       <c r="J67" t="str">
-        <v>3/9/2018 - 13</v>
+        <v>3/9/2018 - 13.0</v>
       </c>
       <c r="K67" t="str">
         <v>27/10/2001 - 51.2</v>
       </c>
       <c r="L67" t="str">
-        <v>3/11/2020 - 48</v>
+        <v>3/11/2020 - 48.0</v>
       </c>
       <c r="M67" t="str">
-        <v>19/12/2013 - 112</v>
+        <v>19/12/2013 - 112.0</v>
       </c>
     </row>
     <row r="68">
@@ -3154,10 +3154,10 @@
         <v>Dona Inês</v>
       </c>
       <c r="B68" t="str">
-        <v>25/1/2005 - 98</v>
+        <v>25/1/2005 - 98.0</v>
       </c>
       <c r="C68" t="str">
-        <v>1/2/2004 - 72</v>
+        <v>1/2/2004 - 72.0</v>
       </c>
       <c r="D68" t="str">
         <v>25/3/2011 - 139.3</v>
@@ -3169,7 +3169,7 @@
         <v>11/5/2016 - 94.6</v>
       </c>
       <c r="G68" t="str">
-        <v>29/6/1994 - 70</v>
+        <v>29/6/1994 - 70.0</v>
       </c>
       <c r="H68" t="str">
         <v>21/7/2017 - 74.6</v>
@@ -3195,13 +3195,13 @@
         <v>Duas Estradas</v>
       </c>
       <c r="B69" t="str">
-        <v>21/1/2004 - 100</v>
+        <v>21/1/2004 - 100.0</v>
       </c>
       <c r="C69" t="str">
-        <v>24/2/2003 - 100</v>
+        <v>24/2/2003 - 100.0</v>
       </c>
       <c r="D69" t="str">
-        <v>16/3/2020 - 79</v>
+        <v>16/3/2020 - 79.0</v>
       </c>
       <c r="E69" t="str">
         <v>29/4/1996 - 87.6</v>
@@ -3213,7 +3213,7 @@
         <v>13/6/2007 - 100.5</v>
       </c>
       <c r="H69" t="str">
-        <v>6/7/2020 - 79</v>
+        <v>6/7/2020 - 79.0</v>
       </c>
       <c r="I69" t="str">
         <v>26/8/2009 - 77.6</v>
@@ -3245,10 +3245,10 @@
         <v>2/3/2006 - 133.2</v>
       </c>
       <c r="E70" t="str">
-        <v>9/4/2018 - 100</v>
+        <v>9/4/2018 - 100.0</v>
       </c>
       <c r="F70" t="str">
-        <v>14/5/1999 - 99</v>
+        <v>14/5/1999 - 99.0</v>
       </c>
       <c r="G70" t="str">
         <v>18/6/2004 - 37.6</v>
@@ -3277,16 +3277,16 @@
         <v>Esperança/São Miguel</v>
       </c>
       <c r="B71" t="str">
-        <v>17/1/2008 - 49</v>
+        <v>17/1/2008 - 49.0</v>
       </c>
       <c r="C71" t="str">
-        <v>17/2/2000 - 91</v>
+        <v>17/2/2000 - 91.0</v>
       </c>
       <c r="D71" t="str">
         <v>27/3/2005 - 74.5</v>
       </c>
       <c r="E71" t="str">
-        <v>12/4/2009 - 118</v>
+        <v>12/4/2009 - 118.0</v>
       </c>
       <c r="F71" t="str">
         <v>5/5/2011 - 118.7</v>
@@ -3295,7 +3295,7 @@
         <v>27/6/2001 - 63.2</v>
       </c>
       <c r="H71" t="str">
-        <v>17/7/2011 - 80</v>
+        <v>17/7/2011 - 80.0</v>
       </c>
       <c r="I71" t="str">
         <v>9/8/2000 - 60.2</v>
@@ -3307,10 +3307,10 @@
         <v>18/10/2003 - 16.2</v>
       </c>
       <c r="L71" t="str">
-        <v>7/11/1996 - 26</v>
+        <v>7/11/1996 - 26.0</v>
       </c>
       <c r="M71" t="str">
-        <v>29/12/2016 - 44</v>
+        <v>29/12/2016 - 44.0</v>
       </c>
     </row>
     <row r="72">
@@ -3321,7 +3321,7 @@
         <v>22/1/2020 - 61.2</v>
       </c>
       <c r="C72" t="str">
-        <v>17/2/2000 - 81</v>
+        <v>17/2/2000 - 81.0</v>
       </c>
       <c r="D72" t="str">
         <v>2/3/2020 - 100.6</v>
@@ -3339,7 +3339,7 @@
         <v>21/7/2017 - 73.5</v>
       </c>
       <c r="I72" t="str">
-        <v>2/8/2000 - 42</v>
+        <v>2/8/2000 - 42.0</v>
       </c>
       <c r="J72" t="str">
         <v>12/9/2000 - 30.6</v>
@@ -3359,7 +3359,7 @@
         <v>Fagundes</v>
       </c>
       <c r="B73" t="str">
-        <v>21/1/2004 - 64</v>
+        <v>21/1/2004 - 64.0</v>
       </c>
       <c r="C73" t="str">
         <v>21/2/2009 - 114.1</v>
@@ -3403,10 +3403,10 @@
         <v>18/1/2020 - 89.8</v>
       </c>
       <c r="C74" t="str">
-        <v>10/2/2002 - 77</v>
+        <v>10/2/2002 - 77.0</v>
       </c>
       <c r="D74" t="str">
-        <v>1/3/2020 - 145</v>
+        <v>1/3/2020 - 145.0</v>
       </c>
       <c r="E74" t="str">
         <v>27/4/1997 - 108.2</v>
@@ -3418,10 +3418,10 @@
         <v>1/6/2002 - 58.5</v>
       </c>
       <c r="H74" t="str">
-        <v>18/7/2011 - 39</v>
+        <v>18/7/2011 - 39.0</v>
       </c>
       <c r="I74" t="str">
-        <v>17/8/2003 - 45</v>
+        <v>17/8/2003 - 45.0</v>
       </c>
       <c r="J74" t="str">
         <v>3/9/2001 - 7.9</v>
@@ -3453,7 +3453,7 @@
         <v>12/4/2009 - 78.5</v>
       </c>
       <c r="F75" t="str">
-        <v>20/5/1995 - 93</v>
+        <v>20/5/1995 - 93.0</v>
       </c>
       <c r="G75" t="str">
         <v>18/6/2004 - 112.5</v>
@@ -3535,7 +3535,7 @@
         <v>3/4/2008 - 142.4</v>
       </c>
       <c r="F77" t="str">
-        <v>3/5/2010 - 124</v>
+        <v>3/5/2010 - 124.0</v>
       </c>
       <c r="G77" t="str">
         <v>8/6/2006 - 119.8</v>
@@ -3547,7 +3547,7 @@
         <v>17/8/2003 - 56.4</v>
       </c>
       <c r="J77" t="str">
-        <v>3/9/2001 - 24</v>
+        <v>3/9/2001 - 24.0</v>
       </c>
       <c r="K77" t="str">
         <v>24/10/2010 - 118.8</v>
@@ -3564,7 +3564,7 @@
         <v>Ibiara</v>
       </c>
       <c r="B78" t="str">
-        <v>3/1/2011 - 122</v>
+        <v>3/1/2011 - 122.0</v>
       </c>
       <c r="C78" t="str">
         <v>10/2/2017 - 123.6</v>
@@ -3579,10 +3579,10 @@
         <v>10/5/2009 - 68.2</v>
       </c>
       <c r="G78" t="str">
-        <v>18/6/2019 - 47</v>
+        <v>18/6/2019 - 47.0</v>
       </c>
       <c r="H78" t="str">
-        <v>28/7/2014 - 51</v>
+        <v>28/7/2014 - 51.0</v>
       </c>
       <c r="I78" t="str">
         <v>17/8/2003 - 24.2</v>
@@ -3594,10 +3594,10 @@
         <v>27/10/2001 - 64.2</v>
       </c>
       <c r="L78" t="str">
-        <v>26/11/2019 - 76</v>
+        <v>26/11/2019 - 76.0</v>
       </c>
       <c r="M78" t="str">
-        <v>19/12/2013 - 140</v>
+        <v>19/12/2013 - 140.0</v>
       </c>
     </row>
     <row r="79">
@@ -3608,13 +3608,13 @@
         <v>1/1/2022 - 147.8</v>
       </c>
       <c r="C79" t="str">
-        <v>1/2/2008 - 110</v>
+        <v>1/2/2008 - 110.0</v>
       </c>
       <c r="D79" t="str">
         <v>16/3/2020 - 141.2</v>
       </c>
       <c r="E79" t="str">
-        <v>15/4/1997 - 108</v>
+        <v>15/4/1997 - 108.0</v>
       </c>
       <c r="F79" t="str">
         <v>3/5/1996 - 103.4</v>
@@ -3623,22 +3623,22 @@
         <v>1/6/2017 - 62.5</v>
       </c>
       <c r="H79" t="str">
-        <v>24/7/1995 - 42</v>
+        <v>24/7/1995 - 42.0</v>
       </c>
       <c r="I79" t="str">
-        <v>4/8/2022 - 30</v>
+        <v>4/8/2022 - 30.0</v>
       </c>
       <c r="J79" t="str">
         <v>20/9/2023 - 54.5</v>
       </c>
       <c r="K79" t="str">
-        <v>3/10/2014 - 70</v>
+        <v>3/10/2014 - 70.0</v>
       </c>
       <c r="L79" t="str">
         <v>3/11/2020 - 84.2</v>
       </c>
       <c r="M79" t="str">
-        <v>21/12/1994 - 96</v>
+        <v>21/12/1994 - 96.0</v>
       </c>
     </row>
     <row r="80">
@@ -3646,7 +3646,7 @@
         <v>Imaculada</v>
       </c>
       <c r="B80" t="str">
-        <v>3/1/2002 - 122</v>
+        <v>3/1/2002 - 122.0</v>
       </c>
       <c r="C80" t="str">
         <v>16/2/2021 - 130.6</v>
@@ -3687,7 +3687,7 @@
         <v>Ingá</v>
       </c>
       <c r="B81" t="str">
-        <v>29/1/2022 - 70</v>
+        <v>29/1/2022 - 70.0</v>
       </c>
       <c r="C81" t="str">
         <v>5/2/2004 - 74.2</v>
@@ -3696,10 +3696,10 @@
         <v>2/3/2011 - 133.9</v>
       </c>
       <c r="E81" t="str">
-        <v>29/4/2011 - 110</v>
+        <v>29/4/2011 - 110.0</v>
       </c>
       <c r="F81" t="str">
-        <v>28/5/2022 - 100</v>
+        <v>28/5/2022 - 100.0</v>
       </c>
       <c r="G81" t="str">
         <v>26/6/2000 - 78.5</v>
@@ -3708,10 +3708,10 @@
         <v>17/7/2011 - 122.1</v>
       </c>
       <c r="I81" t="str">
-        <v>26/8/2009 - 47</v>
+        <v>26/8/2009 - 47.0</v>
       </c>
       <c r="J81" t="str">
-        <v>8/9/2014 - 34</v>
+        <v>8/9/2014 - 34.0</v>
       </c>
       <c r="K81" t="str">
         <v>9/10/2014 - 28.2</v>
@@ -3731,7 +3731,7 @@
         <v>29/1/2022 - 116.2</v>
       </c>
       <c r="C82" t="str">
-        <v>22/2/2000 - 95</v>
+        <v>22/2/2000 - 95.0</v>
       </c>
       <c r="D82" t="str">
         <v>5/3/2018 - 110.1</v>
@@ -3740,16 +3740,16 @@
         <v>18/4/2016 - 108.5</v>
       </c>
       <c r="F82" t="str">
-        <v>28/5/2022 - 136</v>
+        <v>28/5/2022 - 136.0</v>
       </c>
       <c r="G82" t="str">
         <v>26/6/2000 - 105.5</v>
       </c>
       <c r="H82" t="str">
-        <v>17/7/2011 - 150</v>
+        <v>17/7/2011 - 150.0</v>
       </c>
       <c r="I82" t="str">
-        <v>23/8/2011 - 60</v>
+        <v>23/8/2011 - 60.0</v>
       </c>
       <c r="J82" t="str">
         <v>4/9/2013 - 34.1</v>
@@ -3758,7 +3758,7 @@
         <v>27/10/1999 - 15.4</v>
       </c>
       <c r="L82" t="str">
-        <v>13/11/2022 - 42</v>
+        <v>13/11/2022 - 42.0</v>
       </c>
       <c r="M82" t="str">
         <v>24/12/2015 - 54.1</v>
@@ -3769,7 +3769,7 @@
         <v>Itaporanga</v>
       </c>
       <c r="B83" t="str">
-        <v>27/1/2018 - 212</v>
+        <v>27/1/2018 - 212.0</v>
       </c>
       <c r="C83" t="str">
         <v>23/2/2000 - 115.2</v>
@@ -3781,10 +3781,10 @@
         <v>25/4/1998 - 94.7</v>
       </c>
       <c r="F83" t="str">
-        <v>10/5/2004 - 141</v>
+        <v>10/5/2004 - 141.0</v>
       </c>
       <c r="G83" t="str">
-        <v>1/6/2017 - 116</v>
+        <v>1/6/2017 - 116.0</v>
       </c>
       <c r="H83" t="str">
         <v>5/7/2022 - 50.2</v>
@@ -3816,7 +3816,7 @@
         <v>24/2/2003 - 129.2</v>
       </c>
       <c r="D84" t="str">
-        <v>24/3/2015 - 83</v>
+        <v>24/3/2015 - 83.0</v>
       </c>
       <c r="E84" t="str">
         <v>21/4/2007 - 116.4</v>
@@ -3828,19 +3828,19 @@
         <v>13/6/2007 - 143.4</v>
       </c>
       <c r="H84" t="str">
-        <v>3/7/2013 - 87</v>
+        <v>3/7/2013 - 87.0</v>
       </c>
       <c r="I84" t="str">
-        <v>19/8/2013 - 68</v>
+        <v>19/8/2013 - 68.0</v>
       </c>
       <c r="J84" t="str">
-        <v>9/9/2014 - 55</v>
+        <v>9/9/2014 - 55.0</v>
       </c>
       <c r="K84" t="str">
         <v>26/10/1998 - 18.5</v>
       </c>
       <c r="L84" t="str">
-        <v>14/11/2007 - 44</v>
+        <v>14/11/2007 - 44.0</v>
       </c>
       <c r="M84" t="str">
         <v>29/12/2016 - 56.8</v>
@@ -3857,13 +3857,13 @@
         <v>1/2/2004 - 97.3</v>
       </c>
       <c r="D85" t="str">
-        <v>2/3/2011 - 143</v>
+        <v>2/3/2011 - 143.0</v>
       </c>
       <c r="E85" t="str">
         <v>7/4/2018 - 64.1</v>
       </c>
       <c r="F85" t="str">
-        <v>28/5/2022 - 115</v>
+        <v>28/5/2022 - 115.0</v>
       </c>
       <c r="G85" t="str">
         <v>5/6/2010 - 90.3</v>
@@ -3898,7 +3898,7 @@
         <v>6/2/2019 - 86.5</v>
       </c>
       <c r="D86" t="str">
-        <v>27/3/1996 - 96</v>
+        <v>27/3/1996 - 96.0</v>
       </c>
       <c r="E86" t="str">
         <v>13/4/2011 - 86.4</v>
@@ -3933,7 +3933,7 @@
         <v>Jericó</v>
       </c>
       <c r="B87" t="str">
-        <v>2/1/1998 - 100</v>
+        <v>2/1/1998 - 100.0</v>
       </c>
       <c r="C87" t="str">
         <v>16/2/2021 - 169.1</v>
@@ -3945,13 +3945,13 @@
         <v>3/4/2019 - 99.7</v>
       </c>
       <c r="F87" t="str">
-        <v>21/5/2015 - 90</v>
+        <v>21/5/2015 - 90.0</v>
       </c>
       <c r="G87" t="str">
-        <v>27/6/2001 - 39</v>
+        <v>27/6/2001 - 39.0</v>
       </c>
       <c r="H87" t="str">
-        <v>2/7/2008 - 52</v>
+        <v>2/7/2008 - 52.0</v>
       </c>
       <c r="I87" t="str">
         <v>4/8/2022 - 25.5</v>
@@ -3960,13 +3960,13 @@
         <v>9/9/2014 - 7.3</v>
       </c>
       <c r="K87" t="str">
-        <v>24/10/2010 - 36</v>
+        <v>24/10/2010 - 36.0</v>
       </c>
       <c r="L87" t="str">
-        <v>19/11/2014 - 82</v>
+        <v>19/11/2014 - 82.0</v>
       </c>
       <c r="M87" t="str">
-        <v>7/12/2018 - 68</v>
+        <v>7/12/2018 - 68.0</v>
       </c>
     </row>
     <row r="88">
@@ -3980,13 +3980,13 @@
         <v>20/2/2011 - 119.8</v>
       </c>
       <c r="D88" t="str">
-        <v>5/3/2022 - 109</v>
+        <v>5/3/2022 - 109.0</v>
       </c>
       <c r="E88" t="str">
         <v>16/4/2016 - 147.4</v>
       </c>
       <c r="F88" t="str">
-        <v>30/5/1996 - 190</v>
+        <v>30/5/1996 - 190.0</v>
       </c>
       <c r="G88" t="str">
         <v>14/6/2019 - 182.4</v>
@@ -3995,7 +3995,7 @@
         <v>7/7/2023 - 177.6</v>
       </c>
       <c r="I88" t="str">
-        <v>9/8/1998 - 116</v>
+        <v>9/8/1998 - 116.0</v>
       </c>
       <c r="J88" t="str">
         <v>4/9/2013 - 159.2</v>
@@ -4021,13 +4021,13 @@
         <v>24/2/2003 - 116.4</v>
       </c>
       <c r="D89" t="str">
-        <v>5/3/1996 - 83</v>
+        <v>5/3/1996 - 83.0</v>
       </c>
       <c r="E89" t="str">
         <v>13/4/2011 - 109.4</v>
       </c>
       <c r="F89" t="str">
-        <v>3/5/2017 - 139</v>
+        <v>3/5/2017 - 139.0</v>
       </c>
       <c r="G89" t="str">
         <v>26/6/2000 - 182.6</v>
@@ -4036,16 +4036,16 @@
         <v>5/7/2009 - 98.9</v>
       </c>
       <c r="I89" t="str">
-        <v>30/8/2013 - 81</v>
+        <v>30/8/2013 - 81.0</v>
       </c>
       <c r="J89" t="str">
-        <v>4/9/2013 - 150</v>
+        <v>4/9/2013 - 150.0</v>
       </c>
       <c r="K89" t="str">
         <v>25/10/2013 - 26.5</v>
       </c>
       <c r="L89" t="str">
-        <v>14/11/2009 - 28</v>
+        <v>14/11/2009 - 28.0</v>
       </c>
       <c r="M89" t="str">
         <v>15/12/2000 - 74.2</v>
@@ -4059,7 +4059,7 @@
         <v>26/1/1998 - 104.6</v>
       </c>
       <c r="C90" t="str">
-        <v>24/2/2003 - 149</v>
+        <v>24/2/2003 - 149.0</v>
       </c>
       <c r="D90" t="str">
         <v>29/3/2018 - 98.9</v>
@@ -4068,7 +4068,7 @@
         <v>9/4/2008 - 103.4</v>
       </c>
       <c r="F90" t="str">
-        <v>30/5/1996 - 201</v>
+        <v>30/5/1996 - 201.0</v>
       </c>
       <c r="G90" t="str">
         <v>16/6/2008 - 150.7</v>
@@ -4097,10 +4097,10 @@
         <v>Juarez Távora</v>
       </c>
       <c r="B91" t="str">
-        <v>28/1/2003 - 92</v>
+        <v>28/1/2003 - 92.0</v>
       </c>
       <c r="C91" t="str">
-        <v>23/2/2006 - 61</v>
+        <v>23/2/2006 - 61.0</v>
       </c>
       <c r="D91" t="str">
         <v>11/3/1996 - 89.8</v>
@@ -4115,7 +4115,7 @@
         <v>29/6/2012 - 96.4</v>
       </c>
       <c r="H91" t="str">
-        <v>21/7/2017 - 108</v>
+        <v>21/7/2017 - 108.0</v>
       </c>
       <c r="I91" t="str">
         <v>8/8/2008 - 50.5</v>
@@ -4124,7 +4124,7 @@
         <v>8/9/2014 - 35.2</v>
       </c>
       <c r="K91" t="str">
-        <v>21/10/2019 - 38</v>
+        <v>21/10/2019 - 38.0</v>
       </c>
       <c r="L91" t="str">
         <v>28/11/2023 - 24.6</v>
@@ -4138,19 +4138,19 @@
         <v>Juazeirinho</v>
       </c>
       <c r="B92" t="str">
-        <v>24/1/2005 - 84</v>
+        <v>24/1/2005 - 84.0</v>
       </c>
       <c r="C92" t="str">
         <v>18/2/2014 - 71.6</v>
       </c>
       <c r="D92" t="str">
-        <v>31/3/2000 - 100</v>
+        <v>31/3/2000 - 100.0</v>
       </c>
       <c r="E92" t="str">
         <v>7/4/2003 - 99.6</v>
       </c>
       <c r="F92" t="str">
-        <v>22/5/1999 - 90</v>
+        <v>22/5/1999 - 90.0</v>
       </c>
       <c r="G92" t="str">
         <v>8/6/2006 - 117.4</v>
@@ -4159,10 +4159,10 @@
         <v>21/7/2009 - 60.5</v>
       </c>
       <c r="I92" t="str">
-        <v>2/8/2000 - 35</v>
+        <v>2/8/2000 - 35.0</v>
       </c>
       <c r="J92" t="str">
-        <v>18/9/1996 - 34</v>
+        <v>18/9/1996 - 34.0</v>
       </c>
       <c r="K92" t="str">
         <v>28/10/2001 - 69.4</v>
@@ -4185,28 +4185,28 @@
         <v>29/2/2020 - 82.5</v>
       </c>
       <c r="D93" t="str">
-        <v>19/3/2007 - 82</v>
+        <v>19/3/2007 - 82.0</v>
       </c>
       <c r="E93" t="str">
-        <v>29/4/1994 - 132</v>
+        <v>29/4/1994 - 132.0</v>
       </c>
       <c r="F93" t="str">
-        <v>20/5/1995 - 76</v>
+        <v>20/5/1995 - 76.0</v>
       </c>
       <c r="G93" t="str">
-        <v>8/6/2006 - 114</v>
+        <v>8/6/2006 - 114.0</v>
       </c>
       <c r="H93" t="str">
-        <v>1/7/1997 - 31</v>
+        <v>1/7/1997 - 31.0</v>
       </c>
       <c r="I93" t="str">
-        <v>2/8/2000 - 33</v>
+        <v>2/8/2000 - 33.0</v>
       </c>
       <c r="J93" t="str">
         <v>22/9/2004 - 25.3</v>
       </c>
       <c r="K93" t="str">
-        <v>24/10/2010 - 24</v>
+        <v>24/10/2010 - 24.0</v>
       </c>
       <c r="L93" t="str">
         <v>19/11/2014 - 61.5</v>
@@ -4223,7 +4223,7 @@
         <v>18/1/2010 - 80.9</v>
       </c>
       <c r="C94" t="str">
-        <v>26/2/2021 - 156</v>
+        <v>26/2/2021 - 156.0</v>
       </c>
       <c r="D94" t="str">
         <v>13/3/2020 - 88.3</v>
@@ -4235,25 +4235,25 @@
         <v>28/5/2022 - 156.5</v>
       </c>
       <c r="G94" t="str">
-        <v>26/6/2000 - 124</v>
+        <v>26/6/2000 - 124.0</v>
       </c>
       <c r="H94" t="str">
-        <v>17/7/2011 - 120</v>
+        <v>17/7/2011 - 120.0</v>
       </c>
       <c r="I94" t="str">
         <v>8/8/2008 - 63.8</v>
       </c>
       <c r="J94" t="str">
-        <v>8/9/2014 - 50</v>
+        <v>8/9/2014 - 50.0</v>
       </c>
       <c r="K94" t="str">
-        <v>12/10/2001 - 38</v>
+        <v>12/10/2001 - 38.0</v>
       </c>
       <c r="L94" t="str">
         <v>21/11/2013 - 78.3</v>
       </c>
       <c r="M94" t="str">
-        <v>28/12/2003 - 39</v>
+        <v>28/12/2003 - 39.0</v>
       </c>
     </row>
     <row r="95">
@@ -4267,13 +4267,13 @@
         <v>1/2/2008 - 112.2</v>
       </c>
       <c r="D95" t="str">
-        <v>21/3/2006 - 108</v>
+        <v>21/3/2006 - 108.0</v>
       </c>
       <c r="E95" t="str">
-        <v>17/4/2023 - 100</v>
+        <v>17/4/2023 - 100.0</v>
       </c>
       <c r="F95" t="str">
-        <v>4/5/1994 - 87</v>
+        <v>4/5/1994 - 87.0</v>
       </c>
       <c r="G95" t="str">
         <v>17/6/2013 - 45.6</v>
@@ -4291,7 +4291,7 @@
         <v>23/10/2010 - 79.8</v>
       </c>
       <c r="L95" t="str">
-        <v>3/11/2020 - 67</v>
+        <v>3/11/2020 - 67.0</v>
       </c>
       <c r="M95" t="str">
         <v>25/12/2002 - 65.2</v>
@@ -4302,7 +4302,7 @@
         <v>Lagoa</v>
       </c>
       <c r="B96" t="str">
-        <v>1/1/2020 - 97</v>
+        <v>1/1/2020 - 97.0</v>
       </c>
       <c r="C96" t="str">
         <v>4/2/2004 - 107.6</v>
@@ -4314,7 +4314,7 @@
         <v>24/4/2020 - 102.1</v>
       </c>
       <c r="F96" t="str">
-        <v>15/5/1999 - 85</v>
+        <v>15/5/1999 - 85.0</v>
       </c>
       <c r="G96" t="str">
         <v>4/6/2009 - 48.2</v>
@@ -4335,7 +4335,7 @@
         <v>4/11/2013 - 72.2</v>
       </c>
       <c r="M96" t="str">
-        <v>27/12/2009 - 62</v>
+        <v>27/12/2009 - 62.0</v>
       </c>
     </row>
     <row r="97">
@@ -4352,10 +4352,10 @@
         <v>3/3/2017 - 65.3</v>
       </c>
       <c r="E97" t="str">
-        <v>3/4/1997 - 84</v>
+        <v>3/4/1997 - 84.0</v>
       </c>
       <c r="F97" t="str">
-        <v>2/5/1997 - 81</v>
+        <v>2/5/1997 - 81.0</v>
       </c>
       <c r="G97" t="str">
         <v>13/6/2007 - 112.2</v>
@@ -4387,13 +4387,13 @@
         <v>22/1/2020 - 82.5</v>
       </c>
       <c r="C98" t="str">
-        <v>1/2/2004 - 81</v>
+        <v>1/2/2004 - 81.0</v>
       </c>
       <c r="D98" t="str">
         <v>22/3/2022 - 63.9</v>
       </c>
       <c r="E98" t="str">
-        <v>18/4/2020 - 122</v>
+        <v>18/4/2020 - 122.0</v>
       </c>
       <c r="F98" t="str">
         <v>20/5/2011 - 84.5</v>
@@ -4411,13 +4411,13 @@
         <v>8/9/2014 - 56.5</v>
       </c>
       <c r="K98" t="str">
-        <v>4/10/1998 - 22</v>
+        <v>4/10/1998 - 22.0</v>
       </c>
       <c r="L98" t="str">
         <v>27/11/2001 - 72.3</v>
       </c>
       <c r="M98" t="str">
-        <v>27/12/2021 - 56</v>
+        <v>27/12/2021 - 56.0</v>
       </c>
     </row>
     <row r="99">
@@ -4428,16 +4428,16 @@
         <v>20/1/2003 - 82.5</v>
       </c>
       <c r="C99" t="str">
-        <v>13/2/1996 - 100</v>
+        <v>13/2/1996 - 100.0</v>
       </c>
       <c r="D99" t="str">
-        <v>1/3/2000 - 140</v>
+        <v>1/3/2000 - 140.0</v>
       </c>
       <c r="E99" t="str">
-        <v>26/4/1997 - 75</v>
+        <v>26/4/1997 - 75.0</v>
       </c>
       <c r="F99" t="str">
-        <v>23/5/1999 - 89</v>
+        <v>23/5/1999 - 89.0</v>
       </c>
       <c r="G99" t="str">
         <v>9/6/2020 - 75.5</v>
@@ -4449,16 +4449,16 @@
         <v>4/8/2022 - 65.2</v>
       </c>
       <c r="J99" t="str">
-        <v>1/9/1997 - 0</v>
+        <v>1/9/1997 - 0.0</v>
       </c>
       <c r="K99" t="str">
         <v>23/10/2010 - 65.3</v>
       </c>
       <c r="L99" t="str">
-        <v>3/11/1999 - 151</v>
+        <v>3/11/1999 - 151.0</v>
       </c>
       <c r="M99" t="str">
-        <v>23/12/1999 - 95</v>
+        <v>23/12/1999 - 95.0</v>
       </c>
     </row>
     <row r="100">
@@ -4472,19 +4472,19 @@
         <v>16/2/2021 - 129.3</v>
       </c>
       <c r="D100" t="str">
-        <v>14/3/1999 - 163</v>
+        <v>14/3/1999 - 163.0</v>
       </c>
       <c r="E100" t="str">
-        <v>26/4/1998 - 101</v>
+        <v>26/4/1998 - 101.0</v>
       </c>
       <c r="F100" t="str">
-        <v>14/5/1997 - 80</v>
+        <v>14/5/1997 - 80.0</v>
       </c>
       <c r="G100" t="str">
-        <v>15/6/2005 - 47</v>
+        <v>15/6/2005 - 47.0</v>
       </c>
       <c r="H100" t="str">
-        <v>2/7/1995 - 68</v>
+        <v>2/7/1995 - 68.0</v>
       </c>
       <c r="I100" t="str">
         <v>3/8/2022 - 18.2</v>
@@ -4496,10 +4496,10 @@
         <v>22/10/2010 - 60.2</v>
       </c>
       <c r="L100" t="str">
-        <v>3/11/2020 - 70</v>
+        <v>3/11/2020 - 70.0</v>
       </c>
       <c r="M100" t="str">
-        <v>23/12/1999 - 80</v>
+        <v>23/12/1999 - 80.0</v>
       </c>
     </row>
     <row r="101">
@@ -4507,31 +4507,31 @@
         <v>Mãe D`Água</v>
       </c>
       <c r="B101" t="str">
-        <v>18/1/1994 - 126</v>
+        <v>18/1/1994 - 126.0</v>
       </c>
       <c r="C101" t="str">
-        <v>19/2/2018 - 105</v>
+        <v>19/2/2018 - 105.0</v>
       </c>
       <c r="D101" t="str">
         <v>7/3/1994 - 152.2</v>
       </c>
       <c r="E101" t="str">
-        <v>4/4/2019 - 101</v>
+        <v>4/4/2019 - 101.0</v>
       </c>
       <c r="F101" t="str">
-        <v>10/5/2008 - 73</v>
+        <v>10/5/2008 - 73.0</v>
       </c>
       <c r="G101" t="str">
-        <v>1/6/2002 - 53</v>
+        <v>1/6/2002 - 53.0</v>
       </c>
       <c r="H101" t="str">
-        <v>2/7/1995 - 45</v>
+        <v>2/7/1995 - 45.0</v>
       </c>
       <c r="I101" t="str">
         <v>4/8/2022 - 14.6</v>
       </c>
       <c r="J101" t="str">
-        <v>19/9/2000 - 14</v>
+        <v>19/9/2000 - 14.0</v>
       </c>
       <c r="K101" t="str">
         <v>27/10/2010 - 88.5</v>
@@ -4540,7 +4540,7 @@
         <v>30/11/2022 - 76.7</v>
       </c>
       <c r="M101" t="str">
-        <v>31/12/1997 - 84</v>
+        <v>31/12/1997 - 84.0</v>
       </c>
     </row>
     <row r="102">
@@ -4557,10 +4557,10 @@
         <v>9/3/2001 - 137.3</v>
       </c>
       <c r="E102" t="str">
-        <v>23/4/2020 - 121</v>
+        <v>23/4/2020 - 121.0</v>
       </c>
       <c r="F102" t="str">
-        <v>20/5/1995 - 93</v>
+        <v>20/5/1995 - 93.0</v>
       </c>
       <c r="G102" t="str">
         <v>2/6/2020 - 39.2</v>
@@ -4575,10 +4575,10 @@
         <v>9/9/2014 - 16.4</v>
       </c>
       <c r="K102" t="str">
-        <v>23/10/2010 - 135</v>
+        <v>23/10/2010 - 135.0</v>
       </c>
       <c r="L102" t="str">
-        <v>3/11/2020 - 105</v>
+        <v>3/11/2020 - 105.0</v>
       </c>
       <c r="M102" t="str">
         <v>15/12/2000 - 86.1</v>
@@ -4589,25 +4589,25 @@
         <v>Mamanguape/ASPLAN</v>
       </c>
       <c r="B103" t="str">
-        <v>30/1/2014 - 152</v>
+        <v>30/1/2014 - 152.0</v>
       </c>
       <c r="C103" t="str">
-        <v>18/2/2018 - 180</v>
+        <v>18/2/2018 - 180.0</v>
       </c>
       <c r="D103" t="str">
         <v>21/3/2003 - 113.3</v>
       </c>
       <c r="E103" t="str">
-        <v>13/4/2011 - 100</v>
+        <v>13/4/2011 - 100.0</v>
       </c>
       <c r="F103" t="str">
         <v>20/5/2011 - 125.5</v>
       </c>
       <c r="G103" t="str">
-        <v>17/6/2001 - 98</v>
+        <v>17/6/2001 - 98.0</v>
       </c>
       <c r="H103" t="str">
-        <v>1/7/2000 - 134</v>
+        <v>1/7/2000 - 134.0</v>
       </c>
       <c r="I103" t="str">
         <v>30/8/2013 - 72.7</v>
@@ -4619,7 +4619,7 @@
         <v>10/10/2022 - 36.1</v>
       </c>
       <c r="L103" t="str">
-        <v>25/11/2002 - 41</v>
+        <v>25/11/2002 - 41.0</v>
       </c>
       <c r="M103" t="str">
         <v>17/12/2003 - 67.6</v>
@@ -4642,7 +4642,7 @@
         <v>29/4/1996 - 114.6</v>
       </c>
       <c r="F104" t="str">
-        <v>28/5/2022 - 124</v>
+        <v>28/5/2022 - 124.0</v>
       </c>
       <c r="G104" t="str">
         <v>28/6/2012 - 132.4</v>
@@ -4651,7 +4651,7 @@
         <v>9/7/1994 - 159.2</v>
       </c>
       <c r="I104" t="str">
-        <v>18/8/1994 - 93</v>
+        <v>18/8/1994 - 93.0</v>
       </c>
       <c r="J104" t="str">
         <v>4/9/2013 - 74.7</v>
@@ -4671,16 +4671,16 @@
         <v>Manaíra</v>
       </c>
       <c r="B105" t="str">
-        <v>5/1/1994 - 150</v>
+        <v>5/1/1994 - 150.0</v>
       </c>
       <c r="C105" t="str">
         <v>1/2/2008 - 87.2</v>
       </c>
       <c r="D105" t="str">
-        <v>25/3/1995 - 125</v>
+        <v>25/3/1995 - 125.0</v>
       </c>
       <c r="E105" t="str">
-        <v>15/4/1997 - 96</v>
+        <v>15/4/1997 - 96.0</v>
       </c>
       <c r="F105" t="str">
         <v>1/5/2009 - 56.3</v>
@@ -4701,10 +4701,10 @@
         <v>27/10/2010 - 50.3</v>
       </c>
       <c r="L105" t="str">
-        <v>22/11/1995 - 70</v>
+        <v>22/11/1995 - 70.0</v>
       </c>
       <c r="M105" t="str">
-        <v>25/12/2002 - 137</v>
+        <v>25/12/2002 - 137.0</v>
       </c>
     </row>
     <row r="106">
@@ -4753,10 +4753,10 @@
         <v>Massaranduba</v>
       </c>
       <c r="B107" t="str">
-        <v>19/1/1999 - 72</v>
+        <v>19/1/1999 - 72.0</v>
       </c>
       <c r="C107" t="str">
-        <v>24/2/2003 - 66</v>
+        <v>24/2/2003 - 66.0</v>
       </c>
       <c r="D107" t="str">
         <v>15/3/1999 - 76.4</v>
@@ -4771,7 +4771,7 @@
         <v>26/6/2000 - 77.2</v>
       </c>
       <c r="H107" t="str">
-        <v>12/7/2011 - 78</v>
+        <v>12/7/2011 - 78.0</v>
       </c>
       <c r="I107" t="str">
         <v>25/8/2005 - 58.4</v>
@@ -4783,10 +4783,10 @@
         <v>25/10/2010 - 46.5</v>
       </c>
       <c r="L107" t="str">
-        <v>28/11/2023 - 30</v>
+        <v>28/11/2023 - 30.0</v>
       </c>
       <c r="M107" t="str">
-        <v>28/12/1994 - 40</v>
+        <v>28/12/1994 - 40.0</v>
       </c>
     </row>
     <row r="108">
@@ -4824,7 +4824,7 @@
         <v>10/10/2022 - 21.3</v>
       </c>
       <c r="L108" t="str">
-        <v>13/11/2022 - 30</v>
+        <v>13/11/2022 - 30.0</v>
       </c>
       <c r="M108" t="str">
         <v>17/12/2003 - 74.1</v>
@@ -4844,13 +4844,13 @@
         <v>20/3/2023 - 63.2</v>
       </c>
       <c r="E109" t="str">
-        <v>3/4/1994 - 72</v>
+        <v>3/4/1994 - 72.0</v>
       </c>
       <c r="F109" t="str">
         <v>4/5/2011 - 81.3</v>
       </c>
       <c r="G109" t="str">
-        <v>26/6/2000 - 99</v>
+        <v>26/6/2000 - 99.0</v>
       </c>
       <c r="H109" t="str">
         <v>21/7/2017 - 94.5</v>
@@ -4862,7 +4862,7 @@
         <v>26/9/2009 - 39.7</v>
       </c>
       <c r="K109" t="str">
-        <v>10/10/2002 - 19</v>
+        <v>10/10/2002 - 19.0</v>
       </c>
       <c r="L109" t="str">
         <v>16/11/1996 - 54.6</v>
@@ -4876,7 +4876,7 @@
         <v>Montadas</v>
       </c>
       <c r="B110" t="str">
-        <v>20/1/2010 - 71</v>
+        <v>20/1/2010 - 71.0</v>
       </c>
       <c r="C110" t="str">
         <v>1/2/2004 - 59.3</v>
@@ -4903,7 +4903,7 @@
         <v>9/9/2000 - 28.8</v>
       </c>
       <c r="K110" t="str">
-        <v>4/10/2005 - 19</v>
+        <v>4/10/2005 - 19.0</v>
       </c>
       <c r="L110" t="str">
         <v>28/11/2023 - 22.1</v>
@@ -4917,16 +4917,16 @@
         <v>Monte Horebe</v>
       </c>
       <c r="B111" t="str">
-        <v>26/1/1997 - 98</v>
+        <v>26/1/1997 - 98.0</v>
       </c>
       <c r="C111" t="str">
         <v>1/2/2001 - 91.6</v>
       </c>
       <c r="D111" t="str">
-        <v>13/3/2023 - 100</v>
+        <v>13/3/2023 - 100.0</v>
       </c>
       <c r="E111" t="str">
-        <v>9/4/2010 - 86</v>
+        <v>9/4/2010 - 86.0</v>
       </c>
       <c r="F111" t="str">
         <v>1/5/2011 - 71.4</v>
@@ -4938,7 +4938,7 @@
         <v>2/7/2021 - 49.3</v>
       </c>
       <c r="I111" t="str">
-        <v>4/8/2022 - 16</v>
+        <v>4/8/2022 - 16.0</v>
       </c>
       <c r="J111" t="str">
         <v>9/9/2003 - 19.4</v>
@@ -4947,10 +4947,10 @@
         <v>19/10/2011 - 58.8</v>
       </c>
       <c r="L111" t="str">
-        <v>3/11/2020 - 105</v>
+        <v>3/11/2020 - 105.0</v>
       </c>
       <c r="M111" t="str">
-        <v>21/12/1999 - 128</v>
+        <v>21/12/1999 - 128.0</v>
       </c>
     </row>
     <row r="112">
@@ -4961,28 +4961,28 @@
         <v>22/1/2009 - 79.7</v>
       </c>
       <c r="C112" t="str">
-        <v>16/2/2021 - 90</v>
+        <v>16/2/2021 - 90.0</v>
       </c>
       <c r="D112" t="str">
         <v>30/3/2016 - 98.1</v>
       </c>
       <c r="E112" t="str">
-        <v>2/4/2017 - 120</v>
+        <v>2/4/2017 - 120.0</v>
       </c>
       <c r="F112" t="str">
         <v>6/5/2008 - 108.2</v>
       </c>
       <c r="G112" t="str">
-        <v>14/6/2001 - 38</v>
+        <v>14/6/2001 - 38.0</v>
       </c>
       <c r="H112" t="str">
         <v>1/7/2017 - 64.2</v>
       </c>
       <c r="I112" t="str">
-        <v>25/8/2009 - 40</v>
+        <v>25/8/2009 - 40.0</v>
       </c>
       <c r="J112" t="str">
-        <v>8/9/2000 - 58</v>
+        <v>8/9/2000 - 58.0</v>
       </c>
       <c r="K112" t="str">
         <v>23/10/2010 - 58.2</v>
@@ -4991,7 +4991,7 @@
         <v>30/11/2022 - 86.8</v>
       </c>
       <c r="M112" t="str">
-        <v>31/12/1997 - 105</v>
+        <v>31/12/1997 - 105.0</v>
       </c>
     </row>
     <row r="113">
@@ -5005,10 +5005,10 @@
         <v>1/2/2004 - 126.5</v>
       </c>
       <c r="D113" t="str">
-        <v>26/3/2009 - 74</v>
+        <v>26/3/2009 - 74.0</v>
       </c>
       <c r="E113" t="str">
-        <v>30/4/2011 - 61</v>
+        <v>30/4/2011 - 61.0</v>
       </c>
       <c r="F113" t="str">
         <v>25/5/2022 - 102.8</v>
@@ -5017,22 +5017,22 @@
         <v>14/6/2019 - 72.4</v>
       </c>
       <c r="H113" t="str">
-        <v>17/7/2011 - 106</v>
+        <v>17/7/2011 - 106.0</v>
       </c>
       <c r="I113" t="str">
         <v>8/8/2008 - 68.1</v>
       </c>
       <c r="J113" t="str">
-        <v>9/9/2014 - 47</v>
+        <v>9/9/2014 - 47.0</v>
       </c>
       <c r="K113" t="str">
-        <v>18/10/2003 - 18</v>
+        <v>18/10/2003 - 18.0</v>
       </c>
       <c r="L113" t="str">
         <v>13/11/2022 - 31.3</v>
       </c>
       <c r="M113" t="str">
-        <v>15/12/2000 - 50</v>
+        <v>15/12/2000 - 50.0</v>
       </c>
     </row>
     <row r="114">
@@ -5040,13 +5040,13 @@
         <v>Natuba</v>
       </c>
       <c r="B114" t="str">
-        <v>29/1/2022 - 70</v>
+        <v>29/1/2022 - 70.0</v>
       </c>
       <c r="C114" t="str">
         <v>19/2/2012 - 91.5</v>
       </c>
       <c r="D114" t="str">
-        <v>2/3/2011 - 199</v>
+        <v>2/3/2011 - 199.0</v>
       </c>
       <c r="E114" t="str">
         <v>29/4/1996 - 108.6</v>
@@ -5055,13 +5055,13 @@
         <v>28/5/2022 - 169.6</v>
       </c>
       <c r="G114" t="str">
-        <v>18/6/2010 - 158</v>
+        <v>18/6/2010 - 158.0</v>
       </c>
       <c r="H114" t="str">
         <v>21/7/2017 - 79.5</v>
       </c>
       <c r="I114" t="str">
-        <v>26/8/2011 - 60</v>
+        <v>26/8/2011 - 60.0</v>
       </c>
       <c r="J114" t="str">
         <v>8/9/2014 - 63.1</v>
@@ -5081,31 +5081,31 @@
         <v>Nazarezinho</v>
       </c>
       <c r="B115" t="str">
-        <v>1/1/2022 - 126</v>
+        <v>1/1/2022 - 126.0</v>
       </c>
       <c r="C115" t="str">
-        <v>16/2/2021 - 124</v>
+        <v>16/2/2021 - 124.0</v>
       </c>
       <c r="D115" t="str">
-        <v>31/3/2014 - 108</v>
+        <v>31/3/2014 - 108.0</v>
       </c>
       <c r="E115" t="str">
-        <v>15/4/1997 - 96</v>
+        <v>15/4/1997 - 96.0</v>
       </c>
       <c r="F115" t="str">
         <v>24/5/2002 - 112.4</v>
       </c>
       <c r="G115" t="str">
-        <v>11/6/2022 - 58</v>
+        <v>11/6/2022 - 58.0</v>
       </c>
       <c r="H115" t="str">
-        <v>5/7/2015 - 37</v>
+        <v>5/7/2015 - 37.0</v>
       </c>
       <c r="I115" t="str">
-        <v>9/8/2000 - 18</v>
+        <v>9/8/2000 - 18.0</v>
       </c>
       <c r="J115" t="str">
-        <v>25/9/1999 - 8</v>
+        <v>25/9/1999 - 8.0</v>
       </c>
       <c r="K115" t="str">
         <v>21/10/2011 - 82.4</v>
@@ -5114,7 +5114,7 @@
         <v>6/11/2023 - 73.1</v>
       </c>
       <c r="M115" t="str">
-        <v>30/12/1998 - 75</v>
+        <v>30/12/1998 - 75.0</v>
       </c>
     </row>
     <row r="116">
@@ -5122,7 +5122,7 @@
         <v>Nova Floresta</v>
       </c>
       <c r="B116" t="str">
-        <v>24/1/2011 - 146</v>
+        <v>24/1/2011 - 146.0</v>
       </c>
       <c r="C116" t="str">
         <v>5/2/2019 - 181.5</v>
@@ -5131,13 +5131,13 @@
         <v>1/3/2020 - 157.7</v>
       </c>
       <c r="E116" t="str">
-        <v>27/4/1997 - 87</v>
+        <v>27/4/1997 - 87.0</v>
       </c>
       <c r="F116" t="str">
         <v>1/5/2011 - 77.5</v>
       </c>
       <c r="G116" t="str">
-        <v>17/6/2003 - 48</v>
+        <v>17/6/2003 - 48.0</v>
       </c>
       <c r="H116" t="str">
         <v>1/7/2000 - 70.7</v>
@@ -5146,7 +5146,7 @@
         <v>26/8/2009 - 32.3</v>
       </c>
       <c r="J116" t="str">
-        <v>9/9/2014 - 29</v>
+        <v>9/9/2014 - 29.0</v>
       </c>
       <c r="K116" t="str">
         <v>8/10/2014 - 11.5</v>
@@ -5166,19 +5166,19 @@
         <v>22/1/2009 - 95.8</v>
       </c>
       <c r="C117" t="str">
-        <v>17/2/2014 - 136</v>
+        <v>17/2/2014 - 136.0</v>
       </c>
       <c r="D117" t="str">
-        <v>24/3/2020 - 157</v>
+        <v>24/3/2020 - 157.0</v>
       </c>
       <c r="E117" t="str">
         <v>10/4/1995 - 105.4</v>
       </c>
       <c r="F117" t="str">
-        <v>10/5/2004 - 145</v>
+        <v>10/5/2004 - 145.0</v>
       </c>
       <c r="G117" t="str">
-        <v>6/6/2013 - 50</v>
+        <v>6/6/2013 - 50.0</v>
       </c>
       <c r="H117" t="str">
         <v>13/7/2013 - 24.2</v>
@@ -5187,16 +5187,16 @@
         <v>31/8/2009 - 35.2</v>
       </c>
       <c r="J117" t="str">
-        <v>29/9/2008 - 21</v>
+        <v>29/9/2008 - 21.0</v>
       </c>
       <c r="K117" t="str">
-        <v>21/10/2021 - 38</v>
+        <v>21/10/2021 - 38.0</v>
       </c>
       <c r="L117" t="str">
-        <v>3/11/2020 - 130</v>
+        <v>3/11/2020 - 130.0</v>
       </c>
       <c r="M117" t="str">
-        <v>11/12/2010 - 104</v>
+        <v>11/12/2010 - 104.0</v>
       </c>
     </row>
     <row r="118">
@@ -5219,16 +5219,16 @@
         <v>21/5/2009 - 82.9</v>
       </c>
       <c r="G118" t="str">
-        <v>5/6/2010 - 56</v>
+        <v>5/6/2010 - 56.0</v>
       </c>
       <c r="H118" t="str">
-        <v>17/7/2011 - 48</v>
+        <v>17/7/2011 - 48.0</v>
       </c>
       <c r="I118" t="str">
-        <v>9/8/2008 - 38</v>
+        <v>9/8/2008 - 38.0</v>
       </c>
       <c r="J118" t="str">
-        <v>12/9/2000 - 23</v>
+        <v>12/9/2000 - 23.0</v>
       </c>
       <c r="K118" t="str">
         <v>23/10/2010 - 63.1</v>
@@ -5266,7 +5266,7 @@
         <v>2/7/2017 - 41.5</v>
       </c>
       <c r="I119" t="str">
-        <v>27/8/2009 - 31</v>
+        <v>27/8/2009 - 31.0</v>
       </c>
       <c r="J119" t="str">
         <v>10/9/1998 - 10.3</v>
@@ -5278,7 +5278,7 @@
         <v>24/11/1995 - 152.8</v>
       </c>
       <c r="M119" t="str">
-        <v>9/12/2010 - 67</v>
+        <v>9/12/2010 - 67.0</v>
       </c>
     </row>
     <row r="120">
@@ -5286,10 +5286,10 @@
         <v>Olivedos</v>
       </c>
       <c r="B120" t="str">
-        <v>21/1/2004 - 70</v>
+        <v>21/1/2004 - 70.0</v>
       </c>
       <c r="C120" t="str">
-        <v>15/2/2000 - 78</v>
+        <v>15/2/2000 - 78.0</v>
       </c>
       <c r="D120" t="str">
         <v>26/3/2008 - 86.2</v>
@@ -5307,19 +5307,19 @@
         <v>17/7/2011 - 82.2</v>
       </c>
       <c r="I120" t="str">
-        <v>26/8/2011 - 46</v>
+        <v>26/8/2011 - 46.0</v>
       </c>
       <c r="J120" t="str">
         <v>18/9/1996 - 17.6</v>
       </c>
       <c r="K120" t="str">
-        <v>12/10/2001 - 13</v>
+        <v>12/10/2001 - 13.0</v>
       </c>
       <c r="L120" t="str">
         <v>19/11/2022 - 37.2</v>
       </c>
       <c r="M120" t="str">
-        <v>24/12/2022 - 67</v>
+        <v>24/12/2022 - 67.0</v>
       </c>
     </row>
     <row r="121">
@@ -5327,7 +5327,7 @@
         <v>Ouro Velho</v>
       </c>
       <c r="B121" t="str">
-        <v>22/1/2009 - 122</v>
+        <v>22/1/2009 - 122.0</v>
       </c>
       <c r="C121" t="str">
         <v>10/2/2010 - 142.2</v>
@@ -5339,7 +5339,7 @@
         <v>13/4/2017 - 145.3</v>
       </c>
       <c r="F121" t="str">
-        <v>29/5/2014 - 93</v>
+        <v>29/5/2014 - 93.0</v>
       </c>
       <c r="G121" t="str">
         <v>2/6/2004 - 107.6</v>
@@ -5348,16 +5348,16 @@
         <v>1/7/2002 - 60.3</v>
       </c>
       <c r="I121" t="str">
-        <v>26/8/2009 - 73</v>
+        <v>26/8/2009 - 73.0</v>
       </c>
       <c r="J121" t="str">
         <v>8/9/2000 - 21.4</v>
       </c>
       <c r="K121" t="str">
-        <v>22/10/2010 - 44</v>
+        <v>22/10/2010 - 44.0</v>
       </c>
       <c r="L121" t="str">
-        <v>5/11/2022 - 91</v>
+        <v>5/11/2022 - 91.0</v>
       </c>
       <c r="M121" t="str">
         <v>29/12/2004 - 66.2</v>
@@ -5374,7 +5374,7 @@
         <v>20/2/2023 - 122.2</v>
       </c>
       <c r="D122" t="str">
-        <v>14/3/1999 - 97</v>
+        <v>14/3/1999 - 97.0</v>
       </c>
       <c r="E122" t="str">
         <v>14/4/2021 - 82.3</v>
@@ -5386,13 +5386,13 @@
         <v>15/6/2005 - 40.8</v>
       </c>
       <c r="H122" t="str">
-        <v>2/7/2023 - 27</v>
+        <v>2/7/2023 - 27.0</v>
       </c>
       <c r="I122" t="str">
-        <v>26/8/2009 - 19</v>
+        <v>26/8/2009 - 19.0</v>
       </c>
       <c r="J122" t="str">
-        <v>15/9/2009 - 28</v>
+        <v>15/9/2009 - 28.0</v>
       </c>
       <c r="K122" t="str">
         <v>23/10/2010 - 30.2</v>
@@ -5401,7 +5401,7 @@
         <v>19/11/1997 - 35.8</v>
       </c>
       <c r="M122" t="str">
-        <v>23/12/1999 - 69</v>
+        <v>23/12/1999 - 69.0</v>
       </c>
     </row>
     <row r="123">
@@ -5409,28 +5409,28 @@
         <v>Patos/EMBRAPA</v>
       </c>
       <c r="B123" t="str">
-        <v>26/1/1997 - 90</v>
+        <v>26/1/1997 - 90.0</v>
       </c>
       <c r="C123" t="str">
         <v>1/2/2008 - 136.8</v>
       </c>
       <c r="D123" t="str">
-        <v>19/3/2014 - 149</v>
+        <v>19/3/2014 - 149.0</v>
       </c>
       <c r="E123" t="str">
         <v>14/4/2009 - 284.6</v>
       </c>
       <c r="F123" t="str">
-        <v>10/5/2008 - 103</v>
+        <v>10/5/2008 - 103.0</v>
       </c>
       <c r="G123" t="str">
-        <v>29/6/2013 - 43</v>
+        <v>29/6/2013 - 43.0</v>
       </c>
       <c r="H123" t="str">
         <v>2/7/2021 - 59.2</v>
       </c>
       <c r="I123" t="str">
-        <v>9/8/2000 - 46</v>
+        <v>9/8/2000 - 46.0</v>
       </c>
       <c r="J123" t="str">
         <v>7/9/2000 - 18.2</v>
@@ -5450,7 +5450,7 @@
         <v>Paulista</v>
       </c>
       <c r="B124" t="str">
-        <v>23/1/2004 - 90</v>
+        <v>23/1/2004 - 90.0</v>
       </c>
       <c r="C124" t="str">
         <v>1/2/2004 - 74.3</v>
@@ -5462,28 +5462,28 @@
         <v>18/4/1996 - 91.6</v>
       </c>
       <c r="F124" t="str">
-        <v>20/5/1995 - 212</v>
+        <v>20/5/1995 - 212.0</v>
       </c>
       <c r="G124" t="str">
-        <v>27/6/2001 - 57</v>
+        <v>27/6/2001 - 57.0</v>
       </c>
       <c r="H124" t="str">
         <v>2/7/2009 - 107.7</v>
       </c>
       <c r="I124" t="str">
-        <v>8/8/2009 - 27</v>
+        <v>8/8/2009 - 27.0</v>
       </c>
       <c r="J124" t="str">
         <v>7/9/2000 - 6.2</v>
       </c>
       <c r="K124" t="str">
-        <v>24/10/2010 - 79</v>
+        <v>24/10/2010 - 79.0</v>
       </c>
       <c r="L124" t="str">
-        <v>4/11/2013 - 146</v>
+        <v>4/11/2013 - 146.0</v>
       </c>
       <c r="M124" t="str">
-        <v>24/12/2018 - 65</v>
+        <v>24/12/2018 - 65.0</v>
       </c>
     </row>
     <row r="125">
@@ -5491,7 +5491,7 @@
         <v>Pedra Branca</v>
       </c>
       <c r="B125" t="str">
-        <v>23/1/2009 - 95</v>
+        <v>23/1/2009 - 95.0</v>
       </c>
       <c r="C125" t="str">
         <v>15/2/2021 - 172.3</v>
@@ -5500,31 +5500,31 @@
         <v>20/3/2013 - 136.2</v>
       </c>
       <c r="E125" t="str">
-        <v>18/4/2023 - 78</v>
+        <v>18/4/2023 - 78.0</v>
       </c>
       <c r="F125" t="str">
-        <v>10/5/2004 - 238</v>
+        <v>10/5/2004 - 238.0</v>
       </c>
       <c r="G125" t="str">
         <v>23/6/2013 - 40.4</v>
       </c>
       <c r="H125" t="str">
-        <v>11/7/2002 - 37</v>
+        <v>11/7/2002 - 37.0</v>
       </c>
       <c r="I125" t="str">
         <v>17/8/1997 - 11.4</v>
       </c>
       <c r="J125" t="str">
-        <v>13/9/2000 - 14</v>
+        <v>13/9/2000 - 14.0</v>
       </c>
       <c r="K125" t="str">
-        <v>23/10/2021 - 104</v>
+        <v>23/10/2021 - 104.0</v>
       </c>
       <c r="L125" t="str">
-        <v>30/11/2022 - 112</v>
+        <v>30/11/2022 - 112.0</v>
       </c>
       <c r="M125" t="str">
-        <v>19/12/2013 - 114</v>
+        <v>19/12/2013 - 114.0</v>
       </c>
     </row>
     <row r="126">
@@ -5532,7 +5532,7 @@
         <v>Pedra Lavrada</v>
       </c>
       <c r="B126" t="str">
-        <v>18/1/2020 - 73</v>
+        <v>18/1/2020 - 73.0</v>
       </c>
       <c r="C126" t="str">
         <v>20/2/2011 - 112.8</v>
@@ -5541,7 +5541,7 @@
         <v>13/3/2022 - 106.2</v>
       </c>
       <c r="E126" t="str">
-        <v>29/4/1994 - 101</v>
+        <v>29/4/1994 - 101.0</v>
       </c>
       <c r="F126" t="str">
         <v>11/5/2014 - 74.8</v>
@@ -5556,13 +5556,13 @@
         <v>2/8/2000 - 51.2</v>
       </c>
       <c r="J126" t="str">
-        <v>18/9/1996 - 21</v>
+        <v>18/9/1996 - 21.0</v>
       </c>
       <c r="K126" t="str">
-        <v>24/10/2010 - 140</v>
+        <v>24/10/2010 - 140.0</v>
       </c>
       <c r="L126" t="str">
-        <v>9/11/1996 - 20</v>
+        <v>9/11/1996 - 20.0</v>
       </c>
       <c r="M126" t="str">
         <v>24/12/2018 - 48.2</v>
@@ -5573,28 +5573,28 @@
         <v>Pedras de Fogo</v>
       </c>
       <c r="B127" t="str">
-        <v>19/1/2018 - 65</v>
+        <v>19/1/2018 - 65.0</v>
       </c>
       <c r="C127" t="str">
-        <v>1/2/2004 - 158</v>
+        <v>1/2/2004 - 158.0</v>
       </c>
       <c r="D127" t="str">
-        <v>2/3/2017 - 87</v>
+        <v>2/3/2017 - 87.0</v>
       </c>
       <c r="E127" t="str">
         <v>29/4/1996 - 164.7</v>
       </c>
       <c r="F127" t="str">
-        <v>20/5/2011 - 163</v>
+        <v>20/5/2011 - 163.0</v>
       </c>
       <c r="G127" t="str">
         <v>26/6/2000 - 163.4</v>
       </c>
       <c r="H127" t="str">
-        <v>17/7/2011 - 169</v>
+        <v>17/7/2011 - 169.0</v>
       </c>
       <c r="I127" t="str">
-        <v>17/8/1994 - 80</v>
+        <v>17/8/1994 - 80.0</v>
       </c>
       <c r="J127" t="str">
         <v>17/9/2000 - 114.8</v>
@@ -5606,7 +5606,7 @@
         <v>14/11/2009 - 37.4</v>
       </c>
       <c r="M127" t="str">
-        <v>28/12/2003 - 79</v>
+        <v>28/12/2003 - 79.0</v>
       </c>
     </row>
     <row r="128">
@@ -5614,22 +5614,22 @@
         <v>Piancó</v>
       </c>
       <c r="B128" t="str">
-        <v>17/1/1994 - 112</v>
+        <v>17/1/1994 - 112.0</v>
       </c>
       <c r="C128" t="str">
         <v>18/2/1998 - 89.4</v>
       </c>
       <c r="D128" t="str">
-        <v>3/3/1996 - 97</v>
+        <v>3/3/1996 - 97.0</v>
       </c>
       <c r="E128" t="str">
-        <v>6/4/1995 - 92</v>
+        <v>6/4/1995 - 92.0</v>
       </c>
       <c r="F128" t="str">
-        <v>30/5/1995 - 149</v>
+        <v>30/5/1995 - 149.0</v>
       </c>
       <c r="G128" t="str">
-        <v>5/6/1996 - 50</v>
+        <v>5/6/1996 - 50.0</v>
       </c>
       <c r="H128" t="str">
         <v>5/7/2015 - 31.7</v>
@@ -5638,13 +5638,13 @@
         <v>21/8/2013 - 33.4</v>
       </c>
       <c r="J128" t="str">
-        <v>18/9/2000 - 11</v>
+        <v>18/9/2000 - 11.0</v>
       </c>
       <c r="K128" t="str">
-        <v>22/10/2010 - 51</v>
+        <v>22/10/2010 - 51.0</v>
       </c>
       <c r="L128" t="str">
-        <v>3/11/2020 - 113</v>
+        <v>3/11/2020 - 113.0</v>
       </c>
       <c r="M128" t="str">
         <v>30/12/2001 - 68.2</v>
@@ -5655,25 +5655,25 @@
         <v>Picuí</v>
       </c>
       <c r="B129" t="str">
-        <v>23/1/2011 - 105</v>
+        <v>23/1/2011 - 105.0</v>
       </c>
       <c r="C129" t="str">
         <v>22/2/2007 - 76.1</v>
       </c>
       <c r="D129" t="str">
-        <v>25/3/2008 - 104</v>
+        <v>25/3/2008 - 104.0</v>
       </c>
       <c r="E129" t="str">
-        <v>29/4/2011 - 117</v>
+        <v>29/4/2011 - 117.0</v>
       </c>
       <c r="F129" t="str">
-        <v>4/5/2003 - 82</v>
+        <v>4/5/2003 - 82.0</v>
       </c>
       <c r="G129" t="str">
         <v>17/6/2003 - 54.8</v>
       </c>
       <c r="H129" t="str">
-        <v>17/7/2011 - 49</v>
+        <v>17/7/2011 - 49.0</v>
       </c>
       <c r="I129" t="str">
         <v>17/8/2003 - 26.5</v>
@@ -5688,7 +5688,7 @@
         <v>28/11/2023 - 18.2</v>
       </c>
       <c r="M129" t="str">
-        <v>24/12/2018 - 65</v>
+        <v>24/12/2018 - 65.0</v>
       </c>
     </row>
     <row r="130">
@@ -5699,13 +5699,13 @@
         <v>24/1/2016 - 49.8</v>
       </c>
       <c r="C130" t="str">
-        <v>1/2/2004 - 175</v>
+        <v>1/2/2004 - 175.0</v>
       </c>
       <c r="D130" t="str">
         <v>13/3/2020 - 114.4</v>
       </c>
       <c r="E130" t="str">
-        <v>20/4/2013 - 80</v>
+        <v>20/4/2013 - 80.0</v>
       </c>
       <c r="F130" t="str">
         <v>7/5/2008 - 161.4</v>
@@ -5714,13 +5714,13 @@
         <v>15/6/2005 - 129.8</v>
       </c>
       <c r="H130" t="str">
-        <v>17/7/2011 - 130</v>
+        <v>17/7/2011 - 130.0</v>
       </c>
       <c r="I130" t="str">
         <v>26/8/2011 - 47.2</v>
       </c>
       <c r="J130" t="str">
-        <v>9/9/2014 - 54</v>
+        <v>9/9/2014 - 54.0</v>
       </c>
       <c r="K130" t="str">
         <v>8/10/2014 - 26.5</v>
@@ -5729,7 +5729,7 @@
         <v>13/11/2022 - 65.5</v>
       </c>
       <c r="M130" t="str">
-        <v>15/12/2000 - 38</v>
+        <v>15/12/2000 - 38.0</v>
       </c>
     </row>
     <row r="131">
@@ -5743,7 +5743,7 @@
         <v>1/2/2004 - 96.3</v>
       </c>
       <c r="D131" t="str">
-        <v>29/3/2018 - 85</v>
+        <v>29/3/2018 - 85.0</v>
       </c>
       <c r="E131" t="str">
         <v>12/4/2009 - 123.2</v>
@@ -5770,7 +5770,7 @@
         <v>8/11/1996 - 58.4</v>
       </c>
       <c r="M131" t="str">
-        <v>22/12/1997 - 40</v>
+        <v>22/12/1997 - 40.0</v>
       </c>
     </row>
     <row r="132">
@@ -5787,16 +5787,16 @@
         <v>29/3/2018 - 76.4</v>
       </c>
       <c r="E132" t="str">
-        <v>16/4/2000 - 103</v>
+        <v>16/4/2000 - 103.0</v>
       </c>
       <c r="F132" t="str">
         <v>23/5/2016 - 95.7</v>
       </c>
       <c r="G132" t="str">
-        <v>17/6/2003 - 82</v>
+        <v>17/6/2003 - 82.0</v>
       </c>
       <c r="H132" t="str">
-        <v>1/7/2000 - 102</v>
+        <v>1/7/2000 - 102.0</v>
       </c>
       <c r="I132" t="str">
         <v>20/8/2023 - 65.6</v>
@@ -5811,7 +5811,7 @@
         <v>12/11/2011 - 27.2</v>
       </c>
       <c r="M132" t="str">
-        <v>29/12/2016 - 62</v>
+        <v>29/12/2016 - 62.0</v>
       </c>
     </row>
     <row r="133">
@@ -5825,10 +5825,10 @@
         <v>1/2/2004 - 141.3</v>
       </c>
       <c r="D133" t="str">
-        <v>26/3/2008 - 91</v>
+        <v>26/3/2008 - 91.0</v>
       </c>
       <c r="E133" t="str">
-        <v>12/4/2009 - 137</v>
+        <v>12/4/2009 - 137.0</v>
       </c>
       <c r="F133" t="str">
         <v>31/5/2022 - 144.7</v>
@@ -5837,22 +5837,22 @@
         <v>13/6/2007 - 88.6</v>
       </c>
       <c r="H133" t="str">
-        <v>11/7/2000 - 85</v>
+        <v>11/7/2000 - 85.0</v>
       </c>
       <c r="I133" t="str">
         <v>26/8/2009 - 93.3</v>
       </c>
       <c r="J133" t="str">
-        <v>12/9/2000 - 78</v>
+        <v>12/9/2000 - 78.0</v>
       </c>
       <c r="K133" t="str">
         <v>8/10/2014 - 25.1</v>
       </c>
       <c r="L133" t="str">
-        <v>14/11/2007 - 51</v>
+        <v>14/11/2007 - 51.0</v>
       </c>
       <c r="M133" t="str">
-        <v>29/12/2016 - 56</v>
+        <v>29/12/2016 - 56.0</v>
       </c>
     </row>
     <row r="134">
@@ -5863,22 +5863,22 @@
         <v>23/1/2012 - 64.8</v>
       </c>
       <c r="C134" t="str">
-        <v>22/2/2009 - 120</v>
+        <v>22/2/2009 - 120.0</v>
       </c>
       <c r="D134" t="str">
         <v>6/3/2015 - 92.8</v>
       </c>
       <c r="E134" t="str">
-        <v>15/4/2016 - 125</v>
+        <v>15/4/2016 - 125.0</v>
       </c>
       <c r="F134" t="str">
-        <v>14/5/2000 - 142</v>
+        <v>14/5/2000 - 142.0</v>
       </c>
       <c r="G134" t="str">
-        <v>14/6/2019 - 239</v>
+        <v>14/6/2019 - 239.0</v>
       </c>
       <c r="H134" t="str">
-        <v>23/7/2017 - 125</v>
+        <v>23/7/2017 - 125.0</v>
       </c>
       <c r="I134" t="str">
         <v>6/8/2009 - 115.4</v>
@@ -5887,7 +5887,7 @@
         <v>4/9/2013 - 89.1</v>
       </c>
       <c r="K134" t="str">
-        <v>5/10/1999 - 36</v>
+        <v>5/10/1999 - 36.0</v>
       </c>
       <c r="L134" t="str">
         <v>14/11/2009 - 52.8</v>
@@ -5942,7 +5942,7 @@
         <v>Pombal</v>
       </c>
       <c r="B136" t="str">
-        <v>18/1/2004 - 223</v>
+        <v>18/1/2004 - 223.0</v>
       </c>
       <c r="C136" t="str">
         <v>4/2/2004 - 151.2</v>
@@ -5963,7 +5963,7 @@
         <v>9/7/2023 - 26.9</v>
       </c>
       <c r="I136" t="str">
-        <v>27/8/2009 - 102</v>
+        <v>27/8/2009 - 102.0</v>
       </c>
       <c r="J136" t="str">
         <v>9/9/2014 - 8.4</v>
@@ -6010,13 +6010,13 @@
         <v>8/9/2000 - 21.3</v>
       </c>
       <c r="K137" t="str">
-        <v>22/10/2010 - 52</v>
+        <v>22/10/2010 - 52.0</v>
       </c>
       <c r="L137" t="str">
         <v>30/11/2022 - 90.1</v>
       </c>
       <c r="M137" t="str">
-        <v>29/12/2015 - 85</v>
+        <v>29/12/2015 - 85.0</v>
       </c>
     </row>
     <row r="138">
@@ -6036,7 +6036,7 @@
         <v>15/4/1997 - 93.3</v>
       </c>
       <c r="F138" t="str">
-        <v>10/5/2004 - 90</v>
+        <v>10/5/2004 - 90.0</v>
       </c>
       <c r="G138" t="str">
         <v>1/6/2017 - 36.2</v>
@@ -6051,7 +6051,7 @@
         <v>9/9/2003 - 19.3</v>
       </c>
       <c r="K138" t="str">
-        <v>28/10/1999 - 52</v>
+        <v>28/10/1999 - 52.0</v>
       </c>
       <c r="L138" t="str">
         <v>21/11/2020 - 74.9</v>
@@ -6065,25 +6065,25 @@
         <v>Puxinanã</v>
       </c>
       <c r="B139" t="str">
-        <v>20/1/2010 - 54</v>
+        <v>20/1/2010 - 54.0</v>
       </c>
       <c r="C139" t="str">
-        <v>19/2/2012 - 54</v>
+        <v>19/2/2012 - 54.0</v>
       </c>
       <c r="D139" t="str">
         <v>31/3/2019 - 65.2</v>
       </c>
       <c r="E139" t="str">
-        <v>12/4/2009 - 128</v>
+        <v>12/4/2009 - 128.0</v>
       </c>
       <c r="F139" t="str">
         <v>28/5/2022 - 65.4</v>
       </c>
       <c r="G139" t="str">
-        <v>12/6/2006 - 66</v>
+        <v>12/6/2006 - 66.0</v>
       </c>
       <c r="H139" t="str">
-        <v>17/7/2011 - 120</v>
+        <v>17/7/2011 - 120.0</v>
       </c>
       <c r="I139" t="str">
         <v>26/8/2011 - 46.6</v>
@@ -6095,10 +6095,10 @@
         <v>23/10/2010 - 21.8</v>
       </c>
       <c r="L139" t="str">
-        <v>28/11/2023 - 24</v>
+        <v>28/11/2023 - 24.0</v>
       </c>
       <c r="M139" t="str">
-        <v>6/12/2005 - 76</v>
+        <v>6/12/2005 - 76.0</v>
       </c>
     </row>
     <row r="140">
@@ -6118,16 +6118,16 @@
         <v>7/4/2018 - 70.3</v>
       </c>
       <c r="F140" t="str">
-        <v>28/5/2022 - 105</v>
+        <v>28/5/2022 - 105.0</v>
       </c>
       <c r="G140" t="str">
-        <v>18/6/2010 - 75</v>
+        <v>18/6/2010 - 75.0</v>
       </c>
       <c r="H140" t="str">
         <v>16/7/2004 - 76.1</v>
       </c>
       <c r="I140" t="str">
-        <v>17/8/2011 - 72</v>
+        <v>17/8/2011 - 72.0</v>
       </c>
       <c r="J140" t="str">
         <v>19/9/2000 - 23.5</v>
@@ -6136,7 +6136,7 @@
         <v>8/10/2014 - 14.2</v>
       </c>
       <c r="L140" t="str">
-        <v>11/11/1996 - 19</v>
+        <v>11/11/1996 - 19.0</v>
       </c>
       <c r="M140" t="str">
         <v>17/12/2010 - 46.2</v>
@@ -6147,19 +6147,19 @@
         <v>Quixaba</v>
       </c>
       <c r="B141" t="str">
-        <v>31/1/2011 - 150</v>
+        <v>31/1/2011 - 150.0</v>
       </c>
       <c r="C141" t="str">
         <v>10/2/2017 - 135.5</v>
       </c>
       <c r="D141" t="str">
-        <v>28/3/2008 - 137</v>
+        <v>28/3/2008 - 137.0</v>
       </c>
       <c r="E141" t="str">
         <v>4/4/2023 - 96.4</v>
       </c>
       <c r="F141" t="str">
-        <v>6/5/2009 - 136</v>
+        <v>6/5/2009 - 136.0</v>
       </c>
       <c r="G141" t="str">
         <v>4/6/2022 - 57.2</v>
@@ -6171,10 +6171,10 @@
         <v>4/8/2022 - 51.7</v>
       </c>
       <c r="J141" t="str">
-        <v>2/9/2023 - 10</v>
+        <v>2/9/2023 - 10.0</v>
       </c>
       <c r="K141" t="str">
-        <v>21/10/2010 - 27</v>
+        <v>21/10/2010 - 27.0</v>
       </c>
       <c r="L141" t="str">
         <v>3/11/2020 - 65.1</v>
@@ -6194,22 +6194,22 @@
         <v>19/2/2012 - 82.8</v>
       </c>
       <c r="D142" t="str">
-        <v>24/3/2002 - 65</v>
+        <v>24/3/2002 - 65.0</v>
       </c>
       <c r="E142" t="str">
-        <v>12/4/2009 - 117</v>
+        <v>12/4/2009 - 117.0</v>
       </c>
       <c r="F142" t="str">
         <v>5/5/2011 - 142.8</v>
       </c>
       <c r="G142" t="str">
-        <v>26/6/2000 - 62</v>
+        <v>26/6/2000 - 62.0</v>
       </c>
       <c r="H142" t="str">
-        <v>21/7/2017 - 73</v>
+        <v>21/7/2017 - 73.0</v>
       </c>
       <c r="I142" t="str">
-        <v>9/8/2000 - 84</v>
+        <v>9/8/2000 - 84.0</v>
       </c>
       <c r="J142" t="str">
         <v>9/9/2014 - 58.4</v>
@@ -6221,7 +6221,7 @@
         <v>17/11/1996 - 35.2</v>
       </c>
       <c r="M142" t="str">
-        <v>29/12/2016 - 71</v>
+        <v>29/12/2016 - 71.0</v>
       </c>
     </row>
     <row r="143">
@@ -6229,19 +6229,19 @@
         <v>Riacho de Santo Antônio</v>
       </c>
       <c r="B143" t="str">
-        <v>12/1/2004 - 85</v>
+        <v>12/1/2004 - 85.0</v>
       </c>
       <c r="C143" t="str">
         <v>28/2/2008 - 68.5</v>
       </c>
       <c r="D143" t="str">
-        <v>26/3/1997 - 73</v>
+        <v>26/3/1997 - 73.0</v>
       </c>
       <c r="E143" t="str">
-        <v>17/4/2000 - 80</v>
+        <v>17/4/2000 - 80.0</v>
       </c>
       <c r="F143" t="str">
-        <v>5/5/2011 - 70</v>
+        <v>5/5/2011 - 70.0</v>
       </c>
       <c r="G143" t="str">
         <v>18/6/2010 - 77.2</v>
@@ -6253,13 +6253,13 @@
         <v>4/8/2022 - 28.5</v>
       </c>
       <c r="J143" t="str">
-        <v>19/9/2000 - 31</v>
+        <v>19/9/2000 - 31.0</v>
       </c>
       <c r="K143" t="str">
-        <v>23/10/2010 - 56</v>
+        <v>23/10/2010 - 56.0</v>
       </c>
       <c r="L143" t="str">
-        <v>3/11/2013 - 68</v>
+        <v>3/11/2013 - 68.0</v>
       </c>
       <c r="M143" t="str">
         <v>24/12/2022 - 75.5</v>
@@ -6270,40 +6270,40 @@
         <v>Riacho dos Cavalos/Jenipapeiro dos Carreiros</v>
       </c>
       <c r="B144" t="str">
-        <v>22/1/1996 - 135</v>
+        <v>22/1/1996 - 135.0</v>
       </c>
       <c r="C144" t="str">
         <v>16/2/2021 - 136.6</v>
       </c>
       <c r="D144" t="str">
-        <v>30/3/2006 - 97</v>
+        <v>30/3/2006 - 97.0</v>
       </c>
       <c r="E144" t="str">
         <v>18/4/1996 - 98.1</v>
       </c>
       <c r="F144" t="str">
-        <v>29/5/2014 - 110</v>
+        <v>29/5/2014 - 110.0</v>
       </c>
       <c r="G144" t="str">
-        <v>15/6/2005 - 76</v>
+        <v>15/6/2005 - 76.0</v>
       </c>
       <c r="H144" t="str">
-        <v>13/7/2011 - 40</v>
+        <v>13/7/2011 - 40.0</v>
       </c>
       <c r="I144" t="str">
-        <v>2/8/2000 - 25</v>
+        <v>2/8/2000 - 25.0</v>
       </c>
       <c r="J144" t="str">
         <v>16/9/2000 - 9.2</v>
       </c>
       <c r="K144" t="str">
-        <v>28/10/2001 - 47</v>
+        <v>28/10/2001 - 47.0</v>
       </c>
       <c r="L144" t="str">
         <v>7/11/2022 - 92.6</v>
       </c>
       <c r="M144" t="str">
-        <v>19/12/2013 - 70</v>
+        <v>19/12/2013 - 70.0</v>
       </c>
     </row>
     <row r="145">
@@ -6311,7 +6311,7 @@
         <v>Rio Tinto</v>
       </c>
       <c r="B145" t="str">
-        <v>23/1/2004 - 135</v>
+        <v>23/1/2004 - 135.0</v>
       </c>
       <c r="C145" t="str">
         <v>20/2/2011 - 201.4</v>
@@ -6320,10 +6320,10 @@
         <v>27/3/2019 - 128.6</v>
       </c>
       <c r="E145" t="str">
-        <v>17/4/2016 - 107</v>
+        <v>17/4/2016 - 107.0</v>
       </c>
       <c r="F145" t="str">
-        <v>2/5/1997 - 180</v>
+        <v>2/5/1997 - 180.0</v>
       </c>
       <c r="G145" t="str">
         <v>13/6/2007 - 141.2</v>
@@ -6335,10 +6335,10 @@
         <v>30/8/2013 - 85.6</v>
       </c>
       <c r="J145" t="str">
-        <v>18/9/2000 - 90</v>
+        <v>18/9/2000 - 90.0</v>
       </c>
       <c r="K145" t="str">
-        <v>24/10/1996 - 35</v>
+        <v>24/10/1996 - 35.0</v>
       </c>
       <c r="L145" t="str">
         <v>14/11/2007 - 32.3</v>
@@ -6355,28 +6355,28 @@
         <v>20/1/2003 - 121.2</v>
       </c>
       <c r="C146" t="str">
-        <v>16/2/2021 - 180</v>
+        <v>16/2/2021 - 180.0</v>
       </c>
       <c r="D146" t="str">
         <v>25/3/2005 - 152.6</v>
       </c>
       <c r="E146" t="str">
-        <v>23/4/2018 - 87</v>
+        <v>23/4/2018 - 87.0</v>
       </c>
       <c r="F146" t="str">
         <v>6/5/2009 - 104.6</v>
       </c>
       <c r="G146" t="str">
-        <v>15/6/2005 - 62</v>
+        <v>15/6/2005 - 62.0</v>
       </c>
       <c r="H146" t="str">
-        <v>2/7/2008 - 81</v>
+        <v>2/7/2008 - 81.0</v>
       </c>
       <c r="I146" t="str">
         <v>2/8/2000 - 22.2</v>
       </c>
       <c r="J146" t="str">
-        <v>2/9/2001 - 15</v>
+        <v>2/9/2001 - 15.0</v>
       </c>
       <c r="K146" t="str">
         <v>23/10/2010 - 29.5</v>
@@ -6385,7 +6385,7 @@
         <v>7/11/2022 - 45.4</v>
       </c>
       <c r="M146" t="str">
-        <v>6/12/2005 - 99</v>
+        <v>6/12/2005 - 99.0</v>
       </c>
     </row>
     <row r="147">
@@ -6396,7 +6396,7 @@
         <v>9/1/2016 - 73.3</v>
       </c>
       <c r="C147" t="str">
-        <v>6/2/2019 - 82</v>
+        <v>6/2/2019 - 82.0</v>
       </c>
       <c r="D147" t="str">
         <v>11/3/2001 - 87.2</v>
@@ -6405,7 +6405,7 @@
         <v>29/4/2011 - 113.7</v>
       </c>
       <c r="F147" t="str">
-        <v>28/5/2022 - 120</v>
+        <v>28/5/2022 - 120.0</v>
       </c>
       <c r="G147" t="str">
         <v>26/6/2000 - 138.8</v>
@@ -6437,10 +6437,10 @@
         <v>22/1/2013 - 93.8</v>
       </c>
       <c r="C148" t="str">
-        <v>4/2/2004 - 127</v>
+        <v>4/2/2004 - 127.0</v>
       </c>
       <c r="D148" t="str">
-        <v>24/3/2015 - 91</v>
+        <v>24/3/2015 - 91.0</v>
       </c>
       <c r="E148" t="str">
         <v>3/4/2008 - 103.2</v>
@@ -6452,10 +6452,10 @@
         <v>5/6/2022 - 39.3</v>
       </c>
       <c r="H148" t="str">
-        <v>1/7/2017 - 71</v>
+        <v>1/7/2017 - 71.0</v>
       </c>
       <c r="I148" t="str">
-        <v>4/8/2022 - 54</v>
+        <v>4/8/2022 - 54.0</v>
       </c>
       <c r="J148" t="str">
         <v>7/9/2000 - 14.7</v>
@@ -6475,13 +6475,13 @@
         <v>Santa Helena</v>
       </c>
       <c r="B149" t="str">
-        <v>26/1/1997 - 115</v>
+        <v>26/1/1997 - 115.0</v>
       </c>
       <c r="C149" t="str">
         <v>24/2/2012 - 127.6</v>
       </c>
       <c r="D149" t="str">
-        <v>30/3/2008 - 144</v>
+        <v>30/3/2008 - 144.0</v>
       </c>
       <c r="E149" t="str">
         <v>15/4/2005 - 104.6</v>
@@ -6502,10 +6502,10 @@
         <v>25/9/2021 - 12.2</v>
       </c>
       <c r="K149" t="str">
-        <v>21/10/2011 - 139</v>
+        <v>21/10/2011 - 139.0</v>
       </c>
       <c r="L149" t="str">
-        <v>3/11/2020 - 132</v>
+        <v>3/11/2020 - 132.0</v>
       </c>
       <c r="M149" t="str">
         <v>19/12/2013 - 97.6</v>
@@ -6516,7 +6516,7 @@
         <v>Santa Luzia</v>
       </c>
       <c r="B150" t="str">
-        <v>19/1/1994 - 81</v>
+        <v>19/1/1994 - 81.0</v>
       </c>
       <c r="C150" t="str">
         <v>16/2/2021 - 113.3</v>
@@ -6528,7 +6528,7 @@
         <v>15/4/1997 - 82.6</v>
       </c>
       <c r="F150" t="str">
-        <v>20/5/1995 - 88</v>
+        <v>20/5/1995 - 88.0</v>
       </c>
       <c r="G150" t="str">
         <v>2/6/2010 - 48.2</v>
@@ -6560,19 +6560,19 @@
         <v>24/1/2023 - 62.5</v>
       </c>
       <c r="C151" t="str">
-        <v>6/2/2004 - 70</v>
+        <v>6/2/2004 - 70.0</v>
       </c>
       <c r="D151" t="str">
-        <v>20/3/2008 - 117</v>
+        <v>20/3/2008 - 117.0</v>
       </c>
       <c r="E151" t="str">
-        <v>25/4/2007 - 91</v>
+        <v>25/4/2007 - 91.0</v>
       </c>
       <c r="F151" t="str">
-        <v>9/5/2008 - 143</v>
+        <v>9/5/2008 - 143.0</v>
       </c>
       <c r="G151" t="str">
-        <v>18/6/2005 - 45</v>
+        <v>18/6/2005 - 45.0</v>
       </c>
       <c r="H151" t="str">
         <v>26/7/2011 - 27.6</v>
@@ -6581,16 +6581,16 @@
         <v>27/8/2009 - 8.4</v>
       </c>
       <c r="J151" t="str">
-        <v>15/9/2009 - 9</v>
+        <v>15/9/2009 - 9.0</v>
       </c>
       <c r="K151" t="str">
-        <v>24/10/2010 - 48</v>
+        <v>24/10/2010 - 48.0</v>
       </c>
       <c r="L151" t="str">
-        <v>16/11/2022 - 30</v>
+        <v>16/11/2022 - 30.0</v>
       </c>
       <c r="M151" t="str">
-        <v>29/12/2015 - 73</v>
+        <v>29/12/2015 - 73.0</v>
       </c>
     </row>
     <row r="152">
@@ -6604,10 +6604,10 @@
         <v>6/2/2020 - 119.9</v>
       </c>
       <c r="D152" t="str">
-        <v>27/3/1996 - 103</v>
+        <v>27/3/1996 - 103.0</v>
       </c>
       <c r="E152" t="str">
-        <v>6/4/1995 - 128</v>
+        <v>6/4/1995 - 128.0</v>
       </c>
       <c r="F152" t="str">
         <v>6/5/2009 - 73.1</v>
@@ -6622,13 +6622,13 @@
         <v>17/8/2003 - 31.7</v>
       </c>
       <c r="J152" t="str">
-        <v>13/9/2000 - 12</v>
+        <v>13/9/2000 - 12.0</v>
       </c>
       <c r="K152" t="str">
-        <v>22/10/2000 - 76</v>
+        <v>22/10/2000 - 76.0</v>
       </c>
       <c r="L152" t="str">
-        <v>26/11/2019 - 62</v>
+        <v>26/11/2019 - 62.0</v>
       </c>
       <c r="M152" t="str">
         <v>19/12/2013 - 84.6</v>
@@ -6642,19 +6642,19 @@
         <v>23/1/2009 - 98.7</v>
       </c>
       <c r="C153" t="str">
-        <v>1/2/2008 - 117</v>
+        <v>1/2/2008 - 117.0</v>
       </c>
       <c r="D153" t="str">
-        <v>20/3/2013 - 146</v>
+        <v>20/3/2013 - 146.0</v>
       </c>
       <c r="E153" t="str">
-        <v>6/4/1995 - 100</v>
+        <v>6/4/1995 - 100.0</v>
       </c>
       <c r="F153" t="str">
-        <v>10/5/2004 - 213</v>
+        <v>10/5/2004 - 213.0</v>
       </c>
       <c r="G153" t="str">
-        <v>23/6/2013 - 57</v>
+        <v>23/6/2013 - 57.0</v>
       </c>
       <c r="H153" t="str">
         <v>22/7/2008 - 22.1</v>
@@ -6663,13 +6663,13 @@
         <v>27/8/2009 - 29.5</v>
       </c>
       <c r="J153" t="str">
-        <v>16/9/2009 - 6</v>
+        <v>16/9/2009 - 6.0</v>
       </c>
       <c r="K153" t="str">
-        <v>19/10/2010 - 56</v>
+        <v>19/10/2010 - 56.0</v>
       </c>
       <c r="L153" t="str">
-        <v>3/11/2020 - 75</v>
+        <v>3/11/2020 - 75.0</v>
       </c>
       <c r="M153" t="str">
         <v>31/12/2021 - 83.7</v>
@@ -6692,7 +6692,7 @@
         <v>17/4/2016 - 156.7</v>
       </c>
       <c r="F154" t="str">
-        <v>3/5/2017 - 166</v>
+        <v>3/5/2017 - 166.0</v>
       </c>
       <c r="G154" t="str">
         <v>14/6/2019 - 136.6</v>
@@ -6721,16 +6721,16 @@
         <v>Santa Teresinha</v>
       </c>
       <c r="B155" t="str">
-        <v>27/1/2004 - 84</v>
+        <v>27/1/2004 - 84.0</v>
       </c>
       <c r="C155" t="str">
-        <v>1/2/2008 - 141</v>
+        <v>1/2/2008 - 141.0</v>
       </c>
       <c r="D155" t="str">
         <v>31/3/2019 - 132.1</v>
       </c>
       <c r="E155" t="str">
-        <v>14/4/2009 - 108</v>
+        <v>14/4/2009 - 108.0</v>
       </c>
       <c r="F155" t="str">
         <v>22/5/1999 - 125.2</v>
@@ -6748,7 +6748,7 @@
         <v>8/9/2000 - 22.3</v>
       </c>
       <c r="K155" t="str">
-        <v>23/10/2010 - 55</v>
+        <v>23/10/2010 - 55.0</v>
       </c>
       <c r="L155" t="str">
         <v>3/11/2020 - 57.5</v>
@@ -6765,13 +6765,13 @@
         <v>18/1/2004 - 84.6</v>
       </c>
       <c r="C156" t="str">
-        <v>16/2/2021 - 156</v>
+        <v>16/2/2021 - 156.0</v>
       </c>
       <c r="D156" t="str">
         <v>22/3/2008 - 138.4</v>
       </c>
       <c r="E156" t="str">
-        <v>20/4/1996 - 140</v>
+        <v>20/4/1996 - 140.0</v>
       </c>
       <c r="F156" t="str">
         <v>6/5/2008 - 119.5</v>
@@ -6783,19 +6783,19 @@
         <v>4/7/2013 - 88.5</v>
       </c>
       <c r="I156" t="str">
-        <v>26/8/2009 - 60</v>
+        <v>26/8/2009 - 60.0</v>
       </c>
       <c r="J156" t="str">
         <v>10/9/2000 - 6.2</v>
       </c>
       <c r="K156" t="str">
-        <v>24/10/2010 - 82</v>
+        <v>24/10/2010 - 82.0</v>
       </c>
       <c r="L156" t="str">
-        <v>4/11/2013 - 47</v>
+        <v>4/11/2013 - 47.0</v>
       </c>
       <c r="M156" t="str">
-        <v>19/12/2013 - 60</v>
+        <v>19/12/2013 - 60.0</v>
       </c>
     </row>
     <row r="157">
@@ -6803,7 +6803,7 @@
         <v>São Domingos do Cariri</v>
       </c>
       <c r="B157" t="str">
-        <v>15/1/2000 - 86</v>
+        <v>15/1/2000 - 86.0</v>
       </c>
       <c r="C157" t="str">
         <v>17/2/2021 - 82.2</v>
@@ -6821,7 +6821,7 @@
         <v>18/6/2010 - 60.3</v>
       </c>
       <c r="H157" t="str">
-        <v>7/7/1999 - 36</v>
+        <v>7/7/1999 - 36.0</v>
       </c>
       <c r="I157" t="str">
         <v>19/8/2013 - 23.5</v>
@@ -6844,19 +6844,19 @@
         <v>São Francisco</v>
       </c>
       <c r="B158" t="str">
-        <v>18/1/2019 - 107</v>
+        <v>18/1/2019 - 107.0</v>
       </c>
       <c r="C158" t="str">
-        <v>18/2/2007 - 124</v>
+        <v>18/2/2007 - 124.0</v>
       </c>
       <c r="D158" t="str">
         <v>23/3/2021 - 127.8</v>
       </c>
       <c r="E158" t="str">
-        <v>23/4/2020 - 85</v>
+        <v>23/4/2020 - 85.0</v>
       </c>
       <c r="F158" t="str">
-        <v>25/5/1995 - 70</v>
+        <v>25/5/1995 - 70.0</v>
       </c>
       <c r="G158" t="str">
         <v>22/6/1994 - 48.4</v>
@@ -6909,16 +6909,16 @@
         <v>17/8/2003 - 82.6</v>
       </c>
       <c r="J159" t="str">
-        <v>3/9/2001 - 17</v>
+        <v>3/9/2001 - 17.0</v>
       </c>
       <c r="K159" t="str">
         <v>23/10/2010 - 144.1</v>
       </c>
       <c r="L159" t="str">
-        <v>19/11/2014 - 105</v>
+        <v>19/11/2014 - 105.0</v>
       </c>
       <c r="M159" t="str">
-        <v>6/12/2005 - 82</v>
+        <v>6/12/2005 - 82.0</v>
       </c>
     </row>
     <row r="160">
@@ -6926,22 +6926,22 @@
         <v>São João do Rio do Peixe/Antenor Navarro</v>
       </c>
       <c r="B160" t="str">
-        <v>11/1/2010 - 187</v>
+        <v>11/1/2010 - 187.0</v>
       </c>
       <c r="C160" t="str">
-        <v>24/2/2012 - 116</v>
+        <v>24/2/2012 - 116.0</v>
       </c>
       <c r="D160" t="str">
-        <v>30/3/2008 - 126</v>
+        <v>30/3/2008 - 126.0</v>
       </c>
       <c r="E160" t="str">
-        <v>13/4/2008 - 117</v>
+        <v>13/4/2008 - 117.0</v>
       </c>
       <c r="F160" t="str">
-        <v>24/5/1997 - 85</v>
+        <v>24/5/1997 - 85.0</v>
       </c>
       <c r="G160" t="str">
-        <v>20/6/1994 - 61</v>
+        <v>20/6/1994 - 61.0</v>
       </c>
       <c r="H160" t="str">
         <v>1/7/2017 - 36.4</v>
@@ -6956,10 +6956,10 @@
         <v>21/10/2011 - 59.5</v>
       </c>
       <c r="L160" t="str">
-        <v>3/11/1999 - 52</v>
+        <v>3/11/1999 - 52.0</v>
       </c>
       <c r="M160" t="str">
-        <v>30/12/1999 - 58</v>
+        <v>30/12/1999 - 58.0</v>
       </c>
     </row>
     <row r="161">
@@ -6973,7 +6973,7 @@
         <v>14/2/2011 - 53.3</v>
       </c>
       <c r="D161" t="str">
-        <v>11/3/2006 - 91</v>
+        <v>11/3/2006 - 91.0</v>
       </c>
       <c r="E161" t="str">
         <v>2/4/2009 - 91.2</v>
@@ -7014,7 +7014,7 @@
         <v>16/2/2021 - 181.4</v>
       </c>
       <c r="D162" t="str">
-        <v>22/3/2008 - 165</v>
+        <v>22/3/2008 - 165.0</v>
       </c>
       <c r="E162" t="str">
         <v>17/4/2021 - 86.9</v>
@@ -7023,25 +7023,25 @@
         <v>24/5/1997 - 86.7</v>
       </c>
       <c r="G162" t="str">
-        <v>1/6/2002 - 61</v>
+        <v>1/6/2002 - 61.0</v>
       </c>
       <c r="H162" t="str">
         <v>1/7/2017 - 68.2</v>
       </c>
       <c r="I162" t="str">
-        <v>4/8/2022 - 41</v>
+        <v>4/8/2022 - 41.0</v>
       </c>
       <c r="J162" t="str">
-        <v>17/9/2000 - 21</v>
+        <v>17/9/2000 - 21.0</v>
       </c>
       <c r="K162" t="str">
-        <v>28/10/2013 - 70</v>
+        <v>28/10/2013 - 70.0</v>
       </c>
       <c r="L162" t="str">
         <v>24/11/1995 - 67.4</v>
       </c>
       <c r="M162" t="str">
-        <v>9/12/2001 - 98</v>
+        <v>9/12/2001 - 98.0</v>
       </c>
     </row>
     <row r="163">
@@ -7055,7 +7055,7 @@
         <v>9/2/2021 - 125.5</v>
       </c>
       <c r="D163" t="str">
-        <v>14/3/1999 - 110</v>
+        <v>14/3/1999 - 110.0</v>
       </c>
       <c r="E163" t="str">
         <v>23/4/2020 - 98.2</v>
@@ -7073,16 +7073,16 @@
         <v>21/8/2009 - 46.7</v>
       </c>
       <c r="J163" t="str">
-        <v>9/9/2003 - 45</v>
+        <v>9/9/2003 - 45.0</v>
       </c>
       <c r="K163" t="str">
-        <v>19/10/2011 - 122</v>
+        <v>19/10/2011 - 122.0</v>
       </c>
       <c r="L163" t="str">
-        <v>27/11/2021 - 140</v>
+        <v>27/11/2021 - 140.0</v>
       </c>
       <c r="M163" t="str">
-        <v>19/12/2013 - 152</v>
+        <v>19/12/2013 - 152.0</v>
       </c>
     </row>
     <row r="164">
@@ -7090,28 +7090,28 @@
         <v>São José de Espinharas</v>
       </c>
       <c r="B164" t="str">
-        <v>18/1/2004 - 115</v>
+        <v>18/1/2004 - 115.0</v>
       </c>
       <c r="C164" t="str">
-        <v>16/2/2021 - 128</v>
+        <v>16/2/2021 - 128.0</v>
       </c>
       <c r="D164" t="str">
-        <v>31/3/2014 - 162</v>
+        <v>31/3/2014 - 162.0</v>
       </c>
       <c r="E164" t="str">
-        <v>22/4/2020 - 76</v>
+        <v>22/4/2020 - 76.0</v>
       </c>
       <c r="F164" t="str">
-        <v>9/5/2008 - 132</v>
+        <v>9/5/2008 - 132.0</v>
       </c>
       <c r="G164" t="str">
-        <v>4/6/2022 - 51</v>
+        <v>4/6/2022 - 51.0</v>
       </c>
       <c r="H164" t="str">
         <v>2/7/2021 - 54.1</v>
       </c>
       <c r="I164" t="str">
-        <v>2/8/2000 - 48</v>
+        <v>2/8/2000 - 48.0</v>
       </c>
       <c r="J164" t="str">
         <v>16/9/1996 - 12.2</v>
@@ -7123,7 +7123,7 @@
         <v>6/11/2022 - 32.6</v>
       </c>
       <c r="M164" t="str">
-        <v>10/12/2008 - 135</v>
+        <v>10/12/2008 - 135.0</v>
       </c>
     </row>
     <row r="165">
@@ -7146,10 +7146,10 @@
         <v>5/5/1996 - 118.5</v>
       </c>
       <c r="G165" t="str">
-        <v>8/6/2015 - 40</v>
+        <v>8/6/2015 - 40.0</v>
       </c>
       <c r="H165" t="str">
-        <v>13/7/2011 - 38</v>
+        <v>13/7/2011 - 38.0</v>
       </c>
       <c r="I165" t="str">
         <v>8/8/2014 - 17.8</v>
@@ -7164,7 +7164,7 @@
         <v>19/11/2014 - 103.8</v>
       </c>
       <c r="M165" t="str">
-        <v>31/12/2021 - 145</v>
+        <v>31/12/2021 - 145.0</v>
       </c>
     </row>
     <row r="166">
@@ -7172,13 +7172,13 @@
         <v>São José do Bonfim</v>
       </c>
       <c r="B166" t="str">
-        <v>1/1/1998 - 92</v>
+        <v>1/1/1998 - 92.0</v>
       </c>
       <c r="C166" t="str">
         <v>1/2/2020 - 116.2</v>
       </c>
       <c r="D166" t="str">
-        <v>19/3/2023 - 115</v>
+        <v>19/3/2023 - 115.0</v>
       </c>
       <c r="E166" t="str">
         <v>14/4/2009 - 213.5</v>
@@ -7187,7 +7187,7 @@
         <v>10/5/1996 - 112.4</v>
       </c>
       <c r="G166" t="str">
-        <v>4/6/2022 - 45</v>
+        <v>4/6/2022 - 45.0</v>
       </c>
       <c r="H166" t="str">
         <v>1/7/1997 - 21.2</v>
@@ -7202,7 +7202,7 @@
         <v>24/10/2010 - 44.8</v>
       </c>
       <c r="L166" t="str">
-        <v>3/11/2020 - 95</v>
+        <v>3/11/2020 - 95.0</v>
       </c>
       <c r="M166" t="str">
         <v>5/12/2005 - 98.5</v>
@@ -7219,28 +7219,28 @@
         <v>28/2/2011 - 83.2</v>
       </c>
       <c r="D167" t="str">
-        <v>26/3/2008 - 101</v>
+        <v>26/3/2008 - 101.0</v>
       </c>
       <c r="E167" t="str">
-        <v>27/4/2009 - 140</v>
+        <v>27/4/2009 - 140.0</v>
       </c>
       <c r="F167" t="str">
         <v>22/5/1999 - 95.5</v>
       </c>
       <c r="G167" t="str">
-        <v>4/6/2022 - 40</v>
+        <v>4/6/2022 - 40.0</v>
       </c>
       <c r="H167" t="str">
-        <v>17/7/2011 - 56</v>
+        <v>17/7/2011 - 56.0</v>
       </c>
       <c r="I167" t="str">
-        <v>26/8/2009 - 61</v>
+        <v>26/8/2009 - 61.0</v>
       </c>
       <c r="J167" t="str">
-        <v>13/9/2000 - 47</v>
+        <v>13/9/2000 - 47.0</v>
       </c>
       <c r="K167" t="str">
-        <v>23/10/2010 - 40</v>
+        <v>23/10/2010 - 40.0</v>
       </c>
       <c r="L167" t="str">
         <v>7/11/2022 - 54.6</v>
@@ -7295,7 +7295,7 @@
         <v>São José dos Cordeiros</v>
       </c>
       <c r="B169" t="str">
-        <v>26/1/2004 - 100</v>
+        <v>26/1/2004 - 100.0</v>
       </c>
       <c r="C169" t="str">
         <v>20/2/2011 - 199.1</v>
@@ -7304,7 +7304,7 @@
         <v>20/3/2008 - 164.3</v>
       </c>
       <c r="E169" t="str">
-        <v>9/4/2018 - 144</v>
+        <v>9/4/2018 - 144.0</v>
       </c>
       <c r="F169" t="str">
         <v>6/5/2009 - 117.9</v>
@@ -7313,7 +7313,7 @@
         <v>8/6/2006 - 48.6</v>
       </c>
       <c r="H169" t="str">
-        <v>7/7/1999 - 46</v>
+        <v>7/7/1999 - 46.0</v>
       </c>
       <c r="I169" t="str">
         <v>10/8/2009 - 21.9</v>
@@ -7322,7 +7322,7 @@
         <v>13/9/2014 - 17.8</v>
       </c>
       <c r="K169" t="str">
-        <v>20/10/2011 - 84</v>
+        <v>20/10/2011 - 84.0</v>
       </c>
       <c r="L169" t="str">
         <v>3/11/2020 - 98.4</v>
@@ -7336,22 +7336,22 @@
         <v>São José dos Ramos</v>
       </c>
       <c r="B170" t="str">
-        <v>22/1/2004 - 70</v>
+        <v>22/1/2004 - 70.0</v>
       </c>
       <c r="C170" t="str">
-        <v>1/2/2004 - 100</v>
+        <v>1/2/2004 - 100.0</v>
       </c>
       <c r="D170" t="str">
-        <v>5/3/2018 - 62</v>
+        <v>5/3/2018 - 62.0</v>
       </c>
       <c r="E170" t="str">
-        <v>20/4/2013 - 79</v>
+        <v>20/4/2013 - 79.0</v>
       </c>
       <c r="F170" t="str">
         <v>20/5/2011 - 99.1</v>
       </c>
       <c r="G170" t="str">
-        <v>15/6/2005 - 104</v>
+        <v>15/6/2005 - 104.0</v>
       </c>
       <c r="H170" t="str">
         <v>21/7/2017 - 96.5</v>
@@ -7360,7 +7360,7 @@
         <v>26/8/2009 - 66.4</v>
       </c>
       <c r="J170" t="str">
-        <v>3/9/2001 - 35</v>
+        <v>3/9/2001 - 35.0</v>
       </c>
       <c r="K170" t="str">
         <v>8/10/2014 - 32.4</v>
@@ -7369,7 +7369,7 @@
         <v>28/11/2023 - 30.3</v>
       </c>
       <c r="M170" t="str">
-        <v>15/12/2000 - 44</v>
+        <v>15/12/2000 - 44.0</v>
       </c>
     </row>
     <row r="171">
@@ -7377,19 +7377,19 @@
         <v>São Mamede</v>
       </c>
       <c r="B171" t="str">
-        <v>22/1/2004 - 122</v>
+        <v>22/1/2004 - 122.0</v>
       </c>
       <c r="C171" t="str">
         <v>19/2/2012 - 84.3</v>
       </c>
       <c r="D171" t="str">
-        <v>19/3/2005 - 117</v>
+        <v>19/3/2005 - 117.0</v>
       </c>
       <c r="E171" t="str">
-        <v>2/4/2001 - 100</v>
+        <v>2/4/2001 - 100.0</v>
       </c>
       <c r="F171" t="str">
-        <v>22/5/1995 - 87</v>
+        <v>22/5/1995 - 87.0</v>
       </c>
       <c r="G171" t="str">
         <v>15/6/2005 - 47.6</v>
@@ -7401,7 +7401,7 @@
         <v>2/8/2000 - 22.1</v>
       </c>
       <c r="J171" t="str">
-        <v>7/9/2000 - 50</v>
+        <v>7/9/2000 - 50.0</v>
       </c>
       <c r="K171" t="str">
         <v>24/10/2010 - 63.6</v>
@@ -7418,13 +7418,13 @@
         <v>São Miguel de Taipu</v>
       </c>
       <c r="B172" t="str">
-        <v>14/1/1994 - 74</v>
+        <v>14/1/1994 - 74.0</v>
       </c>
       <c r="C172" t="str">
         <v>1/2/2004 - 128.2</v>
       </c>
       <c r="D172" t="str">
-        <v>25/3/1997 - 91</v>
+        <v>25/3/1997 - 91.0</v>
       </c>
       <c r="E172" t="str">
         <v>16/4/2016 - 86.2</v>
@@ -7433,7 +7433,7 @@
         <v>20/5/2011 - 128.6</v>
       </c>
       <c r="G172" t="str">
-        <v>22/6/1994 - 124</v>
+        <v>22/6/1994 - 124.0</v>
       </c>
       <c r="H172" t="str">
         <v>18/7/2011 - 151.3</v>
@@ -7474,7 +7474,7 @@
         <v>30/5/1996 - 65.2</v>
       </c>
       <c r="G173" t="str">
-        <v>12/6/2006 - 85</v>
+        <v>12/6/2006 - 85.0</v>
       </c>
       <c r="H173" t="str">
         <v>21/7/2017 - 86.8</v>
@@ -7486,7 +7486,7 @@
         <v>12/9/2000 - 37.9</v>
       </c>
       <c r="K173" t="str">
-        <v>4/10/1998 - 22</v>
+        <v>4/10/1998 - 22.0</v>
       </c>
       <c r="L173" t="str">
         <v>28/11/2023 - 38.3</v>
@@ -7500,7 +7500,7 @@
         <v>São Sebastião do Umbuzeiro</v>
       </c>
       <c r="B174" t="str">
-        <v>30/1/1995 - 96</v>
+        <v>30/1/1995 - 96.0</v>
       </c>
       <c r="C174" t="str">
         <v>23/2/2010 - 113.8</v>
@@ -7521,7 +7521,7 @@
         <v>1/7/2017 - 41.6</v>
       </c>
       <c r="I174" t="str">
-        <v>4/8/2008 - 24</v>
+        <v>4/8/2008 - 24.0</v>
       </c>
       <c r="J174" t="str">
         <v>17/9/2006 - 33.8</v>
@@ -7568,10 +7568,10 @@
         <v>12/9/2000 - 8.2</v>
       </c>
       <c r="K175" t="str">
-        <v>24/10/2010 - 154</v>
+        <v>24/10/2010 - 154.0</v>
       </c>
       <c r="L175" t="str">
-        <v>13/11/2022 - 30</v>
+        <v>13/11/2022 - 30.0</v>
       </c>
       <c r="M175" t="str">
         <v>30/12/1999 - 66.8</v>
@@ -7582,34 +7582,34 @@
         <v>São Vicente do Seridó</v>
       </c>
       <c r="B176" t="str">
-        <v>26/1/2004 - 70</v>
+        <v>26/1/2004 - 70.0</v>
       </c>
       <c r="C176" t="str">
-        <v>27/2/2008 - 118</v>
+        <v>27/2/2008 - 118.0</v>
       </c>
       <c r="D176" t="str">
-        <v>14/3/2000 - 103</v>
+        <v>14/3/2000 - 103.0</v>
       </c>
       <c r="E176" t="str">
         <v>14/4/2006 - 99.5</v>
       </c>
       <c r="F176" t="str">
-        <v>8/5/2006 - 124</v>
+        <v>8/5/2006 - 124.0</v>
       </c>
       <c r="G176" t="str">
         <v>28/6/2012 - 51.5</v>
       </c>
       <c r="H176" t="str">
-        <v>17/7/2011 - 71</v>
+        <v>17/7/2011 - 71.0</v>
       </c>
       <c r="I176" t="str">
         <v>10/8/2009 - 28.4</v>
       </c>
       <c r="J176" t="str">
-        <v>22/9/2004 - 28</v>
+        <v>22/9/2004 - 28.0</v>
       </c>
       <c r="K176" t="str">
-        <v>24/10/2010 - 144</v>
+        <v>24/10/2010 - 144.0</v>
       </c>
       <c r="L176" t="str">
         <v>13/11/2022 - 25.7</v>
@@ -7623,7 +7623,7 @@
         <v>Sapé</v>
       </c>
       <c r="B177" t="str">
-        <v>21/1/2004 - 78</v>
+        <v>21/1/2004 - 78.0</v>
       </c>
       <c r="C177" t="str">
         <v>1/2/2004 - 123.4</v>
@@ -7632,10 +7632,10 @@
         <v>24/3/2015 - 97.4</v>
       </c>
       <c r="E177" t="str">
-        <v>17/4/2016 - 87</v>
+        <v>17/4/2016 - 87.0</v>
       </c>
       <c r="F177" t="str">
-        <v>29/5/2017 - 171</v>
+        <v>29/5/2017 - 171.0</v>
       </c>
       <c r="G177" t="str">
         <v>26/6/2000 - 133.4</v>
@@ -7644,7 +7644,7 @@
         <v>1/7/2000 - 109.8</v>
       </c>
       <c r="I177" t="str">
-        <v>19/8/2013 - 56</v>
+        <v>19/8/2013 - 56.0</v>
       </c>
       <c r="J177" t="str">
         <v>8/9/2014 - 74.2</v>
@@ -7664,7 +7664,7 @@
         <v>Serra Branca</v>
       </c>
       <c r="B178" t="str">
-        <v>3/1/2002 - 104</v>
+        <v>3/1/2002 - 104.0</v>
       </c>
       <c r="C178" t="str">
         <v>17/2/2021 - 109.5</v>
@@ -7676,16 +7676,16 @@
         <v>1/4/2006 - 69.8</v>
       </c>
       <c r="F178" t="str">
-        <v>6/5/2009 - 142</v>
+        <v>6/5/2009 - 142.0</v>
       </c>
       <c r="G178" t="str">
-        <v>8/6/2006 - 94</v>
+        <v>8/6/2006 - 94.0</v>
       </c>
       <c r="H178" t="str">
-        <v>16/7/2004 - 47</v>
+        <v>16/7/2004 - 47.0</v>
       </c>
       <c r="I178" t="str">
-        <v>10/8/2009 - 32</v>
+        <v>10/8/2009 - 32.0</v>
       </c>
       <c r="J178" t="str">
         <v>18/9/1996 - 30.3</v>
@@ -7697,7 +7697,7 @@
         <v>24/11/1995 - 103.5</v>
       </c>
       <c r="M178" t="str">
-        <v>5/12/2005 - 95</v>
+        <v>5/12/2005 - 95.0</v>
       </c>
     </row>
     <row r="179">
@@ -7705,10 +7705,10 @@
         <v>Serra da Raiz</v>
       </c>
       <c r="B179" t="str">
-        <v>21/1/2004 - 122</v>
+        <v>21/1/2004 - 122.0</v>
       </c>
       <c r="C179" t="str">
-        <v>21/2/2018 - 102</v>
+        <v>21/2/2018 - 102.0</v>
       </c>
       <c r="D179" t="str">
         <v>26/3/2018 - 67.9</v>
@@ -7729,13 +7729,13 @@
         <v>26/8/2009 - 99.5</v>
       </c>
       <c r="J179" t="str">
-        <v>9/9/2014 - 64</v>
+        <v>9/9/2014 - 64.0</v>
       </c>
       <c r="K179" t="str">
         <v>18/10/2003 - 37.6</v>
       </c>
       <c r="L179" t="str">
-        <v>1/11/2011 - 98</v>
+        <v>1/11/2011 - 98.0</v>
       </c>
       <c r="M179" t="str">
         <v>14/12/2000 - 62.8</v>
@@ -7746,16 +7746,16 @@
         <v>Serra Grande</v>
       </c>
       <c r="B180" t="str">
-        <v>19/1/1994 - 146</v>
+        <v>19/1/1994 - 146.0</v>
       </c>
       <c r="C180" t="str">
         <v>23/2/2000 - 125.1</v>
       </c>
       <c r="D180" t="str">
-        <v>20/3/2013 - 96</v>
+        <v>20/3/2013 - 96.0</v>
       </c>
       <c r="E180" t="str">
-        <v>18/4/2014 - 133</v>
+        <v>18/4/2014 - 133.0</v>
       </c>
       <c r="F180" t="str">
         <v>10/5/2004 - 107.2</v>
@@ -7770,7 +7770,7 @@
         <v>21/8/2009 - 57.1</v>
       </c>
       <c r="J180" t="str">
-        <v>20/9/2023 - 41</v>
+        <v>20/9/2023 - 41.0</v>
       </c>
       <c r="K180" t="str">
         <v>26/10/2022 - 67.8</v>
@@ -7796,19 +7796,19 @@
         <v>2/3/2020 - 116.1</v>
       </c>
       <c r="E181" t="str">
-        <v>13/4/2017 - 94</v>
+        <v>13/4/2017 - 94.0</v>
       </c>
       <c r="F181" t="str">
         <v>14/5/2021 - 77.3</v>
       </c>
       <c r="G181" t="str">
-        <v>5/6/2003 - 69</v>
+        <v>5/6/2003 - 69.0</v>
       </c>
       <c r="H181" t="str">
-        <v>21/7/2017 - 105</v>
+        <v>21/7/2017 - 105.0</v>
       </c>
       <c r="I181" t="str">
-        <v>25/8/2005 - 45</v>
+        <v>25/8/2005 - 45.0</v>
       </c>
       <c r="J181" t="str">
         <v>5/9/2008 - 28.9</v>
@@ -7817,7 +7817,7 @@
         <v>19/10/2019 - 62.2</v>
       </c>
       <c r="L181" t="str">
-        <v>16/11/1996 - 47</v>
+        <v>16/11/1996 - 47.0</v>
       </c>
       <c r="M181" t="str">
         <v>29/12/2016 - 32.4</v>
@@ -7837,31 +7837,31 @@
         <v>31/3/2016 - 121.2</v>
       </c>
       <c r="E182" t="str">
-        <v>12/4/2009 - 143</v>
+        <v>12/4/2009 - 143.0</v>
       </c>
       <c r="F182" t="str">
-        <v>1/5/1999 - 96</v>
+        <v>1/5/1999 - 96.0</v>
       </c>
       <c r="G182" t="str">
         <v>15/6/2023 - 96.1</v>
       </c>
       <c r="H182" t="str">
-        <v>6/7/2020 - 104</v>
+        <v>6/7/2020 - 104.0</v>
       </c>
       <c r="I182" t="str">
-        <v>8/8/2008 - 95</v>
+        <v>8/8/2008 - 95.0</v>
       </c>
       <c r="J182" t="str">
-        <v>6/9/2007 - 55</v>
+        <v>6/9/2007 - 55.0</v>
       </c>
       <c r="K182" t="str">
-        <v>14/10/2019 - 25</v>
+        <v>14/10/2019 - 25.0</v>
       </c>
       <c r="L182" t="str">
         <v>27/11/1999 - 45.6</v>
       </c>
       <c r="M182" t="str">
-        <v>29/12/2016 - 92</v>
+        <v>29/12/2016 - 92.0</v>
       </c>
     </row>
     <row r="183">
@@ -7875,19 +7875,19 @@
         <v>1/2/2004 - 97.5</v>
       </c>
       <c r="D183" t="str">
-        <v>31/3/2016 - 107</v>
+        <v>31/3/2016 - 107.0</v>
       </c>
       <c r="E183" t="str">
-        <v>12/4/2009 - 59</v>
+        <v>12/4/2009 - 59.0</v>
       </c>
       <c r="F183" t="str">
         <v>25/5/2022 - 96.5</v>
       </c>
       <c r="G183" t="str">
-        <v>13/6/2007 - 89</v>
+        <v>13/6/2007 - 89.0</v>
       </c>
       <c r="H183" t="str">
-        <v>1/7/2000 - 97</v>
+        <v>1/7/2000 - 97.0</v>
       </c>
       <c r="I183" t="str">
         <v>8/8/2008 - 88.2</v>
@@ -7896,7 +7896,7 @@
         <v>12/9/2000 - 61.6</v>
       </c>
       <c r="K183" t="str">
-        <v>15/10/2021 - 33</v>
+        <v>15/10/2021 - 33.0</v>
       </c>
       <c r="L183" t="str">
         <v>9/11/1996 - 28.2</v>
@@ -7916,10 +7916,10 @@
         <v>19/2/2012 - 58.3</v>
       </c>
       <c r="D184" t="str">
-        <v>19/3/2020 - 92</v>
+        <v>19/3/2020 - 92.0</v>
       </c>
       <c r="E184" t="str">
-        <v>7/4/2018 - 86</v>
+        <v>7/4/2018 - 86.0</v>
       </c>
       <c r="F184" t="str">
         <v>7/5/2002 - 77.2</v>
@@ -7957,13 +7957,13 @@
         <v>14/2/2007 - 169.2</v>
       </c>
       <c r="D185" t="str">
-        <v>17/3/2011 - 130</v>
+        <v>17/3/2011 - 130.0</v>
       </c>
       <c r="E185" t="str">
-        <v>17/4/2022 - 140</v>
+        <v>17/4/2022 - 140.0</v>
       </c>
       <c r="F185" t="str">
-        <v>3/5/2010 - 92</v>
+        <v>3/5/2010 - 92.0</v>
       </c>
       <c r="G185" t="str">
         <v>8/6/2006 - 118.5</v>
@@ -7981,10 +7981,10 @@
         <v>24/10/2010 - 88.8</v>
       </c>
       <c r="L185" t="str">
-        <v>23/11/1995 - 42</v>
+        <v>23/11/1995 - 42.0</v>
       </c>
       <c r="M185" t="str">
-        <v>18/12/2010 - 59</v>
+        <v>18/12/2010 - 59.0</v>
       </c>
     </row>
     <row r="186">
@@ -7992,13 +7992,13 @@
         <v>Sossêgo</v>
       </c>
       <c r="B186" t="str">
-        <v>13/1/2019 - 110</v>
+        <v>13/1/2019 - 110.0</v>
       </c>
       <c r="C186" t="str">
         <v>7/2/2000 - 58.5</v>
       </c>
       <c r="D186" t="str">
-        <v>12/3/2020 - 103</v>
+        <v>12/3/2020 - 103.0</v>
       </c>
       <c r="E186" t="str">
         <v>8/4/2013 - 60.7</v>
@@ -8010,7 +8010,7 @@
         <v>2/6/2010 - 44.8</v>
       </c>
       <c r="H186" t="str">
-        <v>17/7/2011 - 61</v>
+        <v>17/7/2011 - 61.0</v>
       </c>
       <c r="I186" t="str">
         <v>8/8/2000 - 37.1</v>
@@ -8042,13 +8042,13 @@
         <v>28/3/2005 - 109.2</v>
       </c>
       <c r="E187" t="str">
-        <v>19/4/2010 - 107</v>
+        <v>19/4/2010 - 107.0</v>
       </c>
       <c r="F187" t="str">
-        <v>6/5/2008 - 154</v>
+        <v>6/5/2008 - 154.0</v>
       </c>
       <c r="G187" t="str">
-        <v>2/6/2020 - 54</v>
+        <v>2/6/2020 - 54.0</v>
       </c>
       <c r="H187" t="str">
         <v>2/7/2000 - 55.3</v>
@@ -8057,7 +8057,7 @@
         <v>4/8/2022 - 70.5</v>
       </c>
       <c r="J187" t="str">
-        <v>17/9/2000 - 7</v>
+        <v>17/9/2000 - 7.0</v>
       </c>
       <c r="K187" t="str">
         <v>27/10/2013 - 119.3</v>
@@ -8115,10 +8115,10 @@
         <v>Sumé</v>
       </c>
       <c r="B189" t="str">
-        <v>10/1/2000 - 115</v>
+        <v>10/1/2000 - 115.0</v>
       </c>
       <c r="C189" t="str">
-        <v>25/2/2023 - 231</v>
+        <v>25/2/2023 - 231.0</v>
       </c>
       <c r="D189" t="str">
         <v>27/3/2014 - 176.6</v>
@@ -8127,7 +8127,7 @@
         <v>1/4/2001 - 85.4</v>
       </c>
       <c r="F189" t="str">
-        <v>25/5/2002 - 85</v>
+        <v>25/5/2002 - 85.0</v>
       </c>
       <c r="G189" t="str">
         <v>27/6/2001 - 57.4</v>
@@ -8142,13 +8142,13 @@
         <v>8/9/2000 - 46.4</v>
       </c>
       <c r="K189" t="str">
-        <v>30/10/2010 - 36</v>
+        <v>30/10/2010 - 36.0</v>
       </c>
       <c r="L189" t="str">
         <v>5/11/2022 - 55.8</v>
       </c>
       <c r="M189" t="str">
-        <v>5/12/2005 - 91</v>
+        <v>5/12/2005 - 91.0</v>
       </c>
     </row>
     <row r="190">
@@ -8171,7 +8171,7 @@
         <v>6/5/2009 - 86.3</v>
       </c>
       <c r="G190" t="str">
-        <v>15/6/2005 - 45</v>
+        <v>15/6/2005 - 45.0</v>
       </c>
       <c r="H190" t="str">
         <v>31/7/2011 - 46.1</v>
@@ -8200,37 +8200,37 @@
         <v>25/1/2004 - 145.8</v>
       </c>
       <c r="C191" t="str">
-        <v>6/2/2004 - 110</v>
+        <v>6/2/2004 - 110.0</v>
       </c>
       <c r="D191" t="str">
         <v>16/3/2020 - 85.2</v>
       </c>
       <c r="E191" t="str">
-        <v>17/4/2023 - 118</v>
+        <v>17/4/2023 - 118.0</v>
       </c>
       <c r="F191" t="str">
-        <v>10/5/2004 - 111</v>
+        <v>10/5/2004 - 111.0</v>
       </c>
       <c r="G191" t="str">
         <v>2/6/2021 - 65.4</v>
       </c>
       <c r="H191" t="str">
-        <v>2/7/2021 - 35</v>
+        <v>2/7/2021 - 35.0</v>
       </c>
       <c r="I191" t="str">
-        <v>7/8/2009 - 54</v>
+        <v>7/8/2009 - 54.0</v>
       </c>
       <c r="J191" t="str">
         <v>9/9/2003 - 18.8</v>
       </c>
       <c r="K191" t="str">
-        <v>13/10/2001 - 45</v>
+        <v>13/10/2001 - 45.0</v>
       </c>
       <c r="L191" t="str">
-        <v>21/11/2020 - 100</v>
+        <v>21/11/2020 - 100.0</v>
       </c>
       <c r="M191" t="str">
-        <v>31/12/2001 - 92</v>
+        <v>31/12/2001 - 92.0</v>
       </c>
     </row>
     <row r="192">
@@ -8253,10 +8253,10 @@
         <v>10/5/2008 - 124.6</v>
       </c>
       <c r="G192" t="str">
-        <v>13/6/2006 - 46</v>
+        <v>13/6/2006 - 46.0</v>
       </c>
       <c r="H192" t="str">
-        <v>3/7/2022 - 30</v>
+        <v>3/7/2022 - 30.0</v>
       </c>
       <c r="I192" t="str">
         <v>26/8/2009 - 33.6</v>
@@ -8288,7 +8288,7 @@
         <v>31/3/2016 - 112.3</v>
       </c>
       <c r="E193" t="str">
-        <v>21/4/2011 - 130</v>
+        <v>21/4/2011 - 130.0</v>
       </c>
       <c r="F193" t="str">
         <v>18/5/2011 - 85.4</v>
@@ -8306,13 +8306,13 @@
         <v>3/9/2020 - 16.8</v>
       </c>
       <c r="K193" t="str">
-        <v>24/10/2010 - 24</v>
+        <v>24/10/2010 - 24.0</v>
       </c>
       <c r="L193" t="str">
-        <v>19/11/2014 - 97</v>
+        <v>19/11/2014 - 97.0</v>
       </c>
       <c r="M193" t="str">
-        <v>6/12/2005 - 121</v>
+        <v>6/12/2005 - 121.0</v>
       </c>
     </row>
     <row r="194">
@@ -8320,10 +8320,10 @@
         <v>Triunfo</v>
       </c>
       <c r="B194" t="str">
-        <v>18/1/2004 - 95</v>
+        <v>18/1/2004 - 95.0</v>
       </c>
       <c r="C194" t="str">
-        <v>18/2/1998 - 117</v>
+        <v>18/2/1998 - 117.0</v>
       </c>
       <c r="D194" t="str">
         <v>11/3/1996 - 95.5</v>
@@ -8335,7 +8335,7 @@
         <v>24/5/2006 - 130.3</v>
       </c>
       <c r="G194" t="str">
-        <v>4/6/2004 - 51</v>
+        <v>4/6/2004 - 51.0</v>
       </c>
       <c r="H194" t="str">
         <v>2/7/2021 - 45.5</v>
@@ -8361,7 +8361,7 @@
         <v>Uiraúna</v>
       </c>
       <c r="B195" t="str">
-        <v>9/1/2000 - 94</v>
+        <v>9/1/2000 - 94.0</v>
       </c>
       <c r="C195" t="str">
         <v>19/2/2012 - 135.1</v>
@@ -8391,7 +8391,7 @@
         <v>23/10/2010 - 88.2</v>
       </c>
       <c r="L195" t="str">
-        <v>24/11/1995 - 62</v>
+        <v>24/11/1995 - 62.0</v>
       </c>
       <c r="M195" t="str">
         <v>19/12/2013 - 87.6</v>
@@ -8443,13 +8443,13 @@
         <v>Várzea</v>
       </c>
       <c r="B197" t="str">
-        <v>19/1/1994 - 63</v>
+        <v>19/1/1994 - 63.0</v>
       </c>
       <c r="C197" t="str">
-        <v>11/2/2017 - 108</v>
+        <v>11/2/2017 - 108.0</v>
       </c>
       <c r="D197" t="str">
-        <v>9/3/1994 - 140</v>
+        <v>9/3/1994 - 140.0</v>
       </c>
       <c r="E197" t="str">
         <v>21/4/2011 - 116.4</v>
@@ -8467,16 +8467,16 @@
         <v>9/8/2000 - 15.1</v>
       </c>
       <c r="J197" t="str">
-        <v>17/9/1996 - 34</v>
+        <v>17/9/1996 - 34.0</v>
       </c>
       <c r="K197" t="str">
-        <v>20/10/2011 - 37</v>
+        <v>20/10/2011 - 37.0</v>
       </c>
       <c r="L197" t="str">
         <v>5/11/2022 - 78.2</v>
       </c>
       <c r="M197" t="str">
-        <v>6/12/2005 - 58</v>
+        <v>6/12/2005 - 58.0</v>
       </c>
     </row>
     <row r="198">
@@ -8484,25 +8484,25 @@
         <v>Vista Serrana/Desterro de Malta</v>
       </c>
       <c r="B198" t="str">
-        <v>18/1/2004 - 102</v>
+        <v>18/1/2004 - 102.0</v>
       </c>
       <c r="C198" t="str">
         <v>4/2/2004 - 157.4</v>
       </c>
       <c r="D198" t="str">
-        <v>26/3/2015 - 106</v>
+        <v>26/3/2015 - 106.0</v>
       </c>
       <c r="E198" t="str">
         <v>14/4/2013 - 85.5</v>
       </c>
       <c r="F198" t="str">
-        <v>20/5/1995 - 93</v>
+        <v>20/5/1995 - 93.0</v>
       </c>
       <c r="G198" t="str">
-        <v>24/6/1994 - 60</v>
+        <v>24/6/1994 - 60.0</v>
       </c>
       <c r="H198" t="str">
-        <v>1/7/2017 - 27</v>
+        <v>1/7/2017 - 27.0</v>
       </c>
       <c r="I198" t="str">
         <v>2/8/2000 - 29.2</v>
@@ -8511,13 +8511,13 @@
         <v>7/9/2000 - 52.4</v>
       </c>
       <c r="K198" t="str">
-        <v>23/10/2010 - 94</v>
+        <v>23/10/2010 - 94.0</v>
       </c>
       <c r="L198" t="str">
         <v>5/11/2022 - 58.5</v>
       </c>
       <c r="M198" t="str">
-        <v>27/12/2021 - 125</v>
+        <v>27/12/2021 - 125.0</v>
       </c>
     </row>
   </sheetData>
